--- a/Escolas de Samba/Escolas de Samba.xlsx
+++ b/Escolas de Samba/Escolas de Samba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raiis\OneDrive\Área de Trabalho\PowerBI\ProjetosBI\Escolas de Samba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E403E8E-5073-4534-89A3-F7E1A070DA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{227E31F3-D159-4C48-8229-F5915D288A53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{A64316DA-B64D-43EA-BABB-EE9B8FFA2C59}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A64316DA-B64D-43EA-BABB-EE9B8FFA2C59}"/>
   </bookViews>
   <sheets>
     <sheet name="RJ" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="516">
   <si>
     <t>Ano</t>
   </si>
@@ -2332,6 +2332,18 @@
   </si>
   <si>
     <t>Módulo</t>
+  </si>
+  <si>
+    <t>UF</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>ES</t>
+  </si>
+  <si>
+    <t>RJ</t>
   </si>
 </sst>
 </file>
@@ -2625,45 +2637,6 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2682,13 +2655,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2703,10 +2673,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2715,10 +2715,22 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3036,10 +3048,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12AFBFBF-D35E-499F-A335-814B779BF9A4}">
-  <dimension ref="A1:E123"/>
+  <dimension ref="A1:F123"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H118" sqref="H118"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3051,24 +3063,27 @@
     <col min="5" max="5" width="39" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="8" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F1" s="8" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1932</v>
       </c>
@@ -3081,8 +3096,11 @@
       <c r="D2" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1933</v>
       </c>
@@ -3095,56 +3113,71 @@
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="F3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
         <v>1934</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="22" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="34"/>
+      <c r="F4" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="22"/>
+      <c r="F5" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
       <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="35"/>
+      <c r="E6" s="22"/>
+      <c r="F6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
       <c r="B7" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="22"/>
+      <c r="F7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>1935</v>
       </c>
@@ -3157,8 +3190,11 @@
       <c r="D8" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>1936</v>
       </c>
@@ -3171,8 +3207,11 @@
       <c r="D9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>1937</v>
       </c>
@@ -3185,21 +3224,27 @@
       <c r="D10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>1938</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="28" t="s">
         <v>390</v>
       </c>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
       <c r="E11" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>1939</v>
       </c>
@@ -3212,8 +3257,11 @@
       <c r="D12" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>1940</v>
       </c>
@@ -3226,8 +3274,11 @@
       <c r="D13" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>1941</v>
       </c>
@@ -3240,8 +3291,11 @@
       <c r="D14" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>1942</v>
       </c>
@@ -3254,8 +3308,11 @@
       <c r="D15" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>1943</v>
       </c>
@@ -3268,8 +3325,11 @@
       <c r="D16" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>1944</v>
       </c>
@@ -3282,8 +3342,11 @@
       <c r="D17" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>1945</v>
       </c>
@@ -3296,30 +3359,39 @@
       <c r="D18" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F18" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>1946</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="25" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="24"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="F20" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>1947</v>
       </c>
@@ -3332,8 +3404,11 @@
       <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>1948</v>
       </c>
@@ -3346,209 +3421,263 @@
       <c r="D22" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="33">
+      <c r="F22" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19">
         <v>1949</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="22" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="34"/>
+      <c r="F23" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="20"/>
       <c r="B24" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="10"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="36"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="22"/>
+      <c r="F24" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="20"/>
       <c r="B25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C25" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E25" s="36"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="35"/>
+      <c r="E25" s="22"/>
+      <c r="F25" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
       <c r="B26" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="36"/>
-    </row>
-    <row r="27" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="22"/>
+      <c r="F26" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="30" t="s">
         <v>392</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="36" t="s">
+      <c r="E27" s="22" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="17"/>
+      <c r="F27" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
       <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C28" s="10"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="36"/>
-    </row>
-    <row r="29" spans="1:5" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="22"/>
+      <c r="F28" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
       <c r="B29" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="17"/>
+      <c r="E29" s="22"/>
+      <c r="F29" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31"/>
       <c r="B30" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C30" s="10"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="36"/>
-    </row>
-    <row r="31" spans="1:5" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="26"/>
+      <c r="E30" s="22"/>
+      <c r="F30" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="151.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="31"/>
       <c r="B31" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C31" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E31" s="36"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="17"/>
+      <c r="E31" s="22"/>
+      <c r="F31" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="31"/>
       <c r="B32" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="36"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="17"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="22"/>
+      <c r="F32" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
       <c r="B33" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="7" t="s">
+      <c r="C33" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="36"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
+      <c r="E33" s="22"/>
+      <c r="F33" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="32"/>
       <c r="B34" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="36"/>
-    </row>
-    <row r="35" spans="1:5" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="33">
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="22"/>
+      <c r="F34" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
         <v>1951</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C35" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E35" s="36" t="s">
+      <c r="E35" s="22" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="34"/>
+      <c r="F35" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
       <c r="B36" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="36"/>
-    </row>
-    <row r="37" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="22"/>
+      <c r="F36" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="20"/>
       <c r="B37" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C37" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E37" s="36"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="35"/>
+      <c r="E37" s="22"/>
+      <c r="F37" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="21"/>
       <c r="B38" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C38" s="8"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="36"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="26"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="22"/>
+      <c r="F38" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>1952</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="28" t="s">
         <v>395</v>
       </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
       <c r="E39" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>1953</v>
       </c>
@@ -3561,8 +3690,11 @@
       <c r="D40" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>1954</v>
       </c>
@@ -3575,8 +3707,11 @@
       <c r="D41" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>1955</v>
       </c>
@@ -3589,8 +3724,11 @@
       <c r="D42" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>1956</v>
       </c>
@@ -3603,8 +3741,11 @@
       <c r="D43" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>1957</v>
       </c>
@@ -3617,8 +3758,11 @@
       <c r="D44" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>1958</v>
       </c>
@@ -3631,8 +3775,11 @@
       <c r="D45" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>1959</v>
       </c>
@@ -3645,9 +3792,12 @@
       <c r="D46" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33">
+      <c r="F46" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="19">
         <v>1960</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -3659,12 +3809,15 @@
       <c r="D47" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E47" s="36" t="s">
+      <c r="E47" s="22" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="34"/>
+      <c r="F47" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="20"/>
       <c r="B48" s="2" t="s">
         <v>2</v>
       </c>
@@ -3674,10 +3827,13 @@
       <c r="D48" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E48" s="36"/>
-    </row>
-    <row r="49" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="34"/>
+      <c r="E48" s="22"/>
+      <c r="F48" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="20"/>
       <c r="B49" s="2" t="s">
         <v>58</v>
       </c>
@@ -3687,10 +3843,13 @@
       <c r="D49" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E49" s="36"/>
-    </row>
-    <row r="50" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="34"/>
+      <c r="E49" s="22"/>
+      <c r="F49" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="20"/>
       <c r="B50" s="2" t="s">
         <v>46</v>
       </c>
@@ -3700,10 +3859,13 @@
       <c r="D50" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E50" s="36"/>
-    </row>
-    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="35"/>
+      <c r="E50" s="22"/>
+      <c r="F50" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="21"/>
       <c r="B51" s="2" t="s">
         <v>35</v>
       </c>
@@ -3713,9 +3875,12 @@
       <c r="D51" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E51" s="36"/>
-    </row>
-    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="22"/>
+      <c r="F51" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>1961</v>
       </c>
@@ -3728,8 +3893,11 @@
       <c r="D52" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>1962</v>
       </c>
@@ -3742,8 +3910,11 @@
       <c r="D53" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>1963</v>
       </c>
@@ -3756,8 +3927,11 @@
       <c r="D54" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>1964</v>
       </c>
@@ -3770,8 +3944,11 @@
       <c r="D55" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1965</v>
       </c>
@@ -3784,8 +3961,11 @@
       <c r="D56" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>1966</v>
       </c>
@@ -3798,8 +3978,11 @@
       <c r="D57" s="3" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>1967</v>
       </c>
@@ -3812,8 +3995,11 @@
       <c r="D58" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>1968</v>
       </c>
@@ -3826,8 +4012,11 @@
       <c r="D59" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>1969</v>
       </c>
@@ -3840,8 +4029,11 @@
       <c r="D60" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>1970</v>
       </c>
@@ -3854,8 +4046,11 @@
       <c r="D61" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>1971</v>
       </c>
@@ -3868,8 +4063,11 @@
       <c r="D62" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>1972</v>
       </c>
@@ -3882,8 +4080,11 @@
       <c r="D63" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>1973</v>
       </c>
@@ -3896,8 +4097,11 @@
       <c r="D64" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>1974</v>
       </c>
@@ -3910,8 +4114,11 @@
       <c r="D65" s="1" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>1975</v>
       </c>
@@ -3924,8 +4131,11 @@
       <c r="D66" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>1976</v>
       </c>
@@ -3938,8 +4148,11 @@
       <c r="D67" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>1977</v>
       </c>
@@ -3952,8 +4165,11 @@
       <c r="D68" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>1978</v>
       </c>
@@ -3966,8 +4182,11 @@
       <c r="D69" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>1979</v>
       </c>
@@ -3980,9 +4199,12 @@
       <c r="D70" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="33">
+      <c r="F70" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="19">
         <v>1980</v>
       </c>
       <c r="B71" s="2" t="s">
@@ -3994,12 +4216,15 @@
       <c r="D71" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="22" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="34"/>
+      <c r="F71" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="20"/>
       <c r="B72" s="2" t="s">
         <v>97</v>
       </c>
@@ -4009,10 +4234,13 @@
       <c r="D72" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="E72" s="36"/>
-    </row>
-    <row r="73" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="35"/>
+      <c r="E72" s="22"/>
+      <c r="F72" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="21"/>
       <c r="B73" s="2" t="s">
         <v>19</v>
       </c>
@@ -4022,9 +4250,12 @@
       <c r="D73" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E73" s="36"/>
-    </row>
-    <row r="74" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E73" s="22"/>
+      <c r="F73" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>1981</v>
       </c>
@@ -4037,8 +4268,11 @@
       <c r="D74" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>1982</v>
       </c>
@@ -4051,8 +4285,11 @@
       <c r="D75" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>1983</v>
       </c>
@@ -4065,74 +4302,95 @@
       <c r="D76" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="33">
+      <c r="F76" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="19">
         <v>1984</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="7" t="s">
+      <c r="C77" s="25" t="s">
         <v>106</v>
       </c>
-      <c r="D77" s="7" t="s">
+      <c r="D77" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="E77" s="36" t="s">
+      <c r="E77" s="22" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="34"/>
+      <c r="F77" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="20"/>
       <c r="B78" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="36"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="34"/>
+      <c r="C78" s="26"/>
+      <c r="D78" s="26"/>
+      <c r="E78" s="22"/>
+      <c r="F78" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="20"/>
       <c r="B79" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="23" t="s">
         <v>109</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="D79" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E79" s="36"/>
-    </row>
-    <row r="80" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="34"/>
+      <c r="E79" s="22"/>
+      <c r="F79" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="20"/>
       <c r="B80" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C80" s="19"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="36"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="34"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="22"/>
+      <c r="F80" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="20"/>
       <c r="B81" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C81" s="19"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="36"/>
-    </row>
-    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="35"/>
+      <c r="C81" s="27"/>
+      <c r="D81" s="27"/>
+      <c r="E81" s="22"/>
+      <c r="F81" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="21"/>
       <c r="B82" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="10"/>
-      <c r="D82" s="10"/>
-      <c r="E82" s="36"/>
-    </row>
-    <row r="83" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="22"/>
+      <c r="F82" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>1985</v>
       </c>
@@ -4145,8 +4403,11 @@
       <c r="D83" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>1986</v>
       </c>
@@ -4159,8 +4420,11 @@
       <c r="D84" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>1987</v>
       </c>
@@ -4173,8 +4437,11 @@
       <c r="D85" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>1988</v>
       </c>
@@ -4187,8 +4454,11 @@
       <c r="D86" s="3" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>1989</v>
       </c>
@@ -4201,8 +4471,11 @@
       <c r="D87" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>1990</v>
       </c>
@@ -4215,8 +4488,11 @@
       <c r="D88" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>1991</v>
       </c>
@@ -4229,8 +4505,11 @@
       <c r="D89" s="2" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>1992</v>
       </c>
@@ -4243,8 +4522,11 @@
       <c r="D90" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>1993</v>
       </c>
@@ -4257,8 +4539,11 @@
       <c r="D91" s="3" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>1994</v>
       </c>
@@ -4271,8 +4556,11 @@
       <c r="D92" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>1995</v>
       </c>
@@ -4285,8 +4573,11 @@
       <c r="D93" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>1996</v>
       </c>
@@ -4299,8 +4590,11 @@
       <c r="D94" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>1997</v>
       </c>
@@ -4313,9 +4607,12 @@
       <c r="D95" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="33">
+      <c r="F95" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="19">
         <v>1998</v>
       </c>
       <c r="B96" s="2" t="s">
@@ -4327,12 +4624,15 @@
       <c r="D96" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="E96" s="36" t="s">
+      <c r="E96" s="22" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="35"/>
+      <c r="F96" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="21"/>
       <c r="B97" s="2" t="s">
         <v>2</v>
       </c>
@@ -4342,9 +4642,12 @@
       <c r="D97" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="E97" s="36"/>
-    </row>
-    <row r="98" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E97" s="22"/>
+      <c r="F97" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>1999</v>
       </c>
@@ -4357,8 +4660,11 @@
       <c r="D98" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>2000</v>
       </c>
@@ -4371,8 +4677,11 @@
       <c r="D99" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>2001</v>
       </c>
@@ -4385,8 +4694,11 @@
       <c r="D100" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>2002</v>
       </c>
@@ -4399,8 +4711,11 @@
       <c r="D101" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>2003</v>
       </c>
@@ -4413,8 +4728,11 @@
       <c r="D102" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>2004</v>
       </c>
@@ -4427,8 +4745,11 @@
       <c r="D103" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="72" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="72" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>2005</v>
       </c>
@@ -4441,8 +4762,11 @@
       <c r="D104" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>2006</v>
       </c>
@@ -4455,8 +4779,11 @@
       <c r="D105" s="2" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>2007</v>
       </c>
@@ -4469,8 +4796,11 @@
       <c r="D106" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>2008</v>
       </c>
@@ -4483,8 +4813,11 @@
       <c r="D107" s="1" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>2009</v>
       </c>
@@ -4497,8 +4830,11 @@
       <c r="D108" s="2" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>2010</v>
       </c>
@@ -4511,8 +4847,11 @@
       <c r="D109" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>2011</v>
       </c>
@@ -4525,8 +4864,11 @@
       <c r="D110" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>2012</v>
       </c>
@@ -4539,8 +4881,11 @@
       <c r="D111" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F111" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>2013</v>
       </c>
@@ -4553,8 +4898,11 @@
       <c r="D112" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F112" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>2014</v>
       </c>
@@ -4567,8 +4915,11 @@
       <c r="D113" s="2" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F113" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>2015</v>
       </c>
@@ -4581,8 +4932,11 @@
       <c r="D114" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F114" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>2016</v>
       </c>
@@ -4595,9 +4949,12 @@
       <c r="D115" s="2" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="33">
+      <c r="F115" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="19">
         <v>2017</v>
       </c>
       <c r="B116" s="2" t="s">
@@ -4609,12 +4966,15 @@
       <c r="D116" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E116" s="36" t="s">
+      <c r="E116" s="22" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="35"/>
+      <c r="F116" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="21"/>
       <c r="B117" s="2" t="s">
         <v>94</v>
       </c>
@@ -4624,9 +4984,12 @@
       <c r="D117" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="E117" s="36"/>
-    </row>
-    <row r="118" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E117" s="22"/>
+      <c r="F117" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>2018</v>
       </c>
@@ -4639,28 +5002,37 @@
       <c r="D118" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="9">
+      <c r="F118" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="23">
         <v>2019</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="9" t="s">
+      <c r="C119" s="23" t="s">
         <v>168</v>
       </c>
-      <c r="D119" s="9" t="s">
+      <c r="D119" s="23" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="10"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="10"/>
-      <c r="D120" s="10"/>
-    </row>
-    <row r="121" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F119" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="24"/>
+      <c r="B120" s="24"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="F120" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>2020</v>
       </c>
@@ -4673,8 +5045,11 @@
       <c r="D121" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F121" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>2022</v>
       </c>
@@ -4687,8 +5062,11 @@
       <c r="D122" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F122" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>2023</v>
       </c>
@@ -4701,20 +5079,25 @@
       <c r="D123" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="F123" t="s">
+        <v>515</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="A77:A82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="E96:E97"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="E116:E117"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="E4:E7"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="E23:E26"/>
-    <mergeCell ref="E27:E34"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
     <mergeCell ref="A35:A38"/>
     <mergeCell ref="E35:E38"/>
     <mergeCell ref="A47:A51"/>
@@ -4731,13 +5114,11 @@
     <mergeCell ref="B39:D39"/>
     <mergeCell ref="E47:E51"/>
     <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="E4:E7"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="E23:E26"/>
+    <mergeCell ref="E27:E34"/>
     <mergeCell ref="A27:A34"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
@@ -4749,12 +5130,12 @@
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="A77:A82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="E96:E97"/>
+    <mergeCell ref="A116:A117"/>
+    <mergeCell ref="E116:E117"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="Resultados do Carnaval do Rio de Janeiro em 1932" display="https://pt.wikipedia.org/wiki/Resultados_do_Carnaval_do_Rio_de_Janeiro_em_1932" xr:uid="{B32F09CE-B433-45F4-8A58-E79AEA3BC255}"/>
@@ -5071,7 +5452,7 @@
   <dimension ref="A1:W88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5082,1174 +5463,1448 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="8" t="s">
         <v>511</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="26"/>
+      <c r="E1" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="13"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="9">
         <v>1958</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="10"/>
+      <c r="E2" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="9">
         <v>1960</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D3" s="23"/>
+      <c r="D3" s="10"/>
+      <c r="E3" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="9">
         <v>1961</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D4" s="23"/>
+      <c r="D4" s="10"/>
+      <c r="E4" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="5" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="9">
         <v>1962</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D5" s="23"/>
+      <c r="D5" s="10"/>
+      <c r="E5" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="6" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="9">
         <v>1963</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D6" s="23"/>
+      <c r="D6" s="10"/>
+      <c r="E6" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="7" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="9">
         <v>1964</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="18" t="s">
         <v>404</v>
       </c>
-      <c r="D7" s="23"/>
+      <c r="D7" s="10"/>
+      <c r="E7" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22">
+      <c r="A8" s="9">
         <v>1965</v>
       </c>
-      <c r="B8" s="37" t="s">
+      <c r="B8" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="10" t="s">
         <v>405</v>
       </c>
+      <c r="E8" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="9" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="22">
+      <c r="A9" s="9">
         <v>1966</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="10" t="s">
         <v>407</v>
       </c>
+      <c r="E9" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="10" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="22">
+      <c r="A10" s="9">
         <v>1967</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="10"/>
+      <c r="E10" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="11" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="9">
         <v>1968</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C11" s="38" t="s">
+      <c r="C11" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="10" t="s">
         <v>409</v>
       </c>
+      <c r="E11" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="9">
         <v>1969</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C12" s="38" t="s">
+      <c r="C12" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="10" t="s">
         <v>410</v>
       </c>
+      <c r="E12" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="9">
         <v>1970</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C13" s="38" t="s">
+      <c r="C13" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="10" t="s">
         <v>411</v>
       </c>
+      <c r="E13" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="14" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="9">
         <v>1971</v>
       </c>
-      <c r="B14" s="37" t="s">
+      <c r="B14" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="18" t="s">
         <v>406</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="10" t="s">
         <v>412</v>
       </c>
+      <c r="E14" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="9">
         <v>1972</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="18" t="s">
         <v>408</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="10" t="s">
         <v>413</v>
       </c>
+      <c r="E15" t="s">
+        <v>514</v>
+      </c>
     </row>
     <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="A16" s="9">
         <v>1973</v>
       </c>
-      <c r="B16" s="37" t="s">
+      <c r="B16" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C16" s="22" t="s">
+      <c r="C16" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="10" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="E16" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9">
         <v>1974</v>
       </c>
-      <c r="B17" s="37" t="s">
+      <c r="B17" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="C17" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="10" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="E17" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
         <v>1975</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="10" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="22">
+      <c r="E18" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9">
         <v>1976</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="10" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="22">
+      <c r="E19" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9">
         <v>1977</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="10" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="E20" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
         <v>1978</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B21" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="10" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="E21" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
         <v>1979</v>
       </c>
-      <c r="B22" s="37" t="s">
+      <c r="B22" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="10" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="22">
+      <c r="E22" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
         <v>1980</v>
       </c>
-      <c r="B23" s="37" t="s">
+      <c r="B23" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D23" s="23" t="s">
+      <c r="D23" s="10" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30">
+      <c r="E23" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="37">
         <v>1981</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B24" s="35" t="s">
         <v>402</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="10" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="22" t="s">
+      <c r="E24" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="10" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="E25" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
         <v>1982</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="10" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="E26" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
         <v>1983</v>
       </c>
-      <c r="B27" s="37" t="s">
+      <c r="B27" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="C27" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="10" t="s">
         <v>428</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30">
+      <c r="E27" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37">
         <v>1984</v>
       </c>
-      <c r="B28" s="37" t="s">
+      <c r="B28" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C28" s="22" t="s">
+      <c r="C28" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="10" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32"/>
-      <c r="B29" s="23" t="s">
+      <c r="E28" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39"/>
+      <c r="B29" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="10" t="s">
         <v>432</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30">
+      <c r="E29" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37">
         <v>1985</v>
       </c>
-      <c r="B30" s="37" t="s">
+      <c r="B30" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="C30" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="10" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="31"/>
-      <c r="B31" s="41" t="s">
+      <c r="E30" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="38"/>
+      <c r="B31" s="33" t="s">
         <v>430</v>
       </c>
-      <c r="C31" s="22" t="s">
+      <c r="C31" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="10" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="32"/>
-      <c r="B32" s="42"/>
-      <c r="C32" s="22" t="s">
+      <c r="E31" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="39"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="10" t="s">
         <v>437</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30">
+      <c r="E32" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37">
         <v>1986</v>
       </c>
-      <c r="B33" s="37" t="s">
+      <c r="B33" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="C33" s="9" t="s">
         <v>403</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="10" t="s">
         <v>438</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="32"/>
-      <c r="B34" s="23" t="s">
+      <c r="E33" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39"/>
+      <c r="B34" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C34" s="22" t="s">
+      <c r="C34" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="10" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30">
+      <c r="E34" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="37">
         <v>1987</v>
       </c>
-      <c r="B35" s="37" t="s">
+      <c r="B35" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="10" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="32"/>
-      <c r="B36" s="23" t="s">
+      <c r="E35" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="39"/>
+      <c r="B36" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="C36" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="10" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="30">
+      <c r="E36" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="37">
         <v>1988</v>
       </c>
-      <c r="B37" s="37" t="s">
+      <c r="B37" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C37" s="22" t="s">
+      <c r="C37" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="10" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="32"/>
-      <c r="B38" s="23" t="s">
+      <c r="E37" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="39"/>
+      <c r="B38" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="10" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="30">
+      <c r="E38" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="37">
         <v>1989</v>
       </c>
-      <c r="B39" s="37" t="s">
+      <c r="B39" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C39" s="22" t="s">
+      <c r="C39" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="10" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="32"/>
-      <c r="B40" s="23" t="s">
+      <c r="E39" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="39"/>
+      <c r="B40" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C40" s="22" t="s">
+      <c r="C40" s="9" t="s">
         <v>446</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="10" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30">
+      <c r="E40" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="37">
         <v>1990</v>
       </c>
-      <c r="B41" s="37" t="s">
+      <c r="B41" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="10" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="32"/>
-      <c r="B42" s="23" t="s">
+      <c r="E41" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="39"/>
+      <c r="B42" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C42" s="9" t="s">
         <v>434</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="10" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30">
+      <c r="E42" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="37">
         <v>1991</v>
       </c>
-      <c r="B43" s="37" t="s">
+      <c r="B43" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C43" s="22" t="s">
+      <c r="C43" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="10" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="32"/>
-      <c r="B44" s="23" t="s">
+      <c r="E43" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="39"/>
+      <c r="B44" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C44" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="D44" s="23"/>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="30">
+      <c r="D44" s="10"/>
+      <c r="E44" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="37">
         <v>1992</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C45" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="10" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="32"/>
-      <c r="B46" s="23" t="s">
+      <c r="E45" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="39"/>
+      <c r="B46" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C46" s="22" t="s">
+      <c r="C46" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="D46" s="22" t="s">
+      <c r="D46" s="9" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="22">
+      <c r="E46" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="9">
         <v>2002</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C47" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="10" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="22">
+      <c r="E47" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="9">
         <v>2003</v>
       </c>
-      <c r="B48" s="37" t="s">
+      <c r="B48" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C48" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D48" s="22" t="s">
+      <c r="D48" s="9" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="22">
+      <c r="E48" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="9">
         <v>2004</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C49" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="10" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22">
+      <c r="E49" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="9">
         <v>2005</v>
       </c>
-      <c r="B50" s="37" t="s">
+      <c r="B50" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C50" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D50" s="22" t="s">
+      <c r="D50" s="9" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30">
+      <c r="E50" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="37">
         <v>2006</v>
       </c>
-      <c r="B51" s="37" t="s">
+      <c r="B51" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C51" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="10" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="23" t="s">
+      <c r="E51" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="39"/>
+      <c r="B52" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C52" s="22" t="s">
+      <c r="C52" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="10" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="30">
+      <c r="E52" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="37">
         <v>2007</v>
       </c>
-      <c r="B53" s="37" t="s">
+      <c r="B53" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C53" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="10" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="32"/>
-      <c r="B54" s="23" t="s">
+      <c r="E53" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="39"/>
+      <c r="B54" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C54" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="10" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="30">
+      <c r="E54" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="37">
         <v>2008</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C55" s="22" t="s">
+      <c r="C55" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="10" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="32"/>
-      <c r="B56" s="23" t="s">
+      <c r="E55" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="39"/>
+      <c r="B56" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C56" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="9" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="22">
+      <c r="E56" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="9">
         <v>2009</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C57" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="9" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="22">
+      <c r="E57" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="9">
         <v>2010</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="17" t="s">
         <v>465</v>
       </c>
-      <c r="C58" s="22" t="s">
+      <c r="C58" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="D58" s="24" t="s">
+      <c r="D58" s="11" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="30">
+      <c r="E58" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="37">
         <v>2011</v>
       </c>
-      <c r="B59" s="37" t="s">
+      <c r="B59" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C59" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D59" s="24" t="s">
+      <c r="D59" s="11" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="32"/>
-      <c r="B60" s="23" t="s">
+      <c r="E59" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="39"/>
+      <c r="B60" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C60" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="10" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30">
+      <c r="E60" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="37">
         <v>2012</v>
       </c>
-      <c r="B61" s="37" t="s">
+      <c r="B61" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C61" s="22" t="s">
+      <c r="C61" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="9" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="32"/>
-      <c r="B62" s="23" t="s">
+      <c r="E61" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="39"/>
+      <c r="B62" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C62" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="9" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="30">
+      <c r="E62" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="37">
         <v>2013</v>
       </c>
-      <c r="B63" s="37" t="s">
+      <c r="B63" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C63" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D63" s="22" t="s">
+      <c r="D63" s="9" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="32"/>
-      <c r="B64" s="23" t="s">
+      <c r="E63" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="39"/>
+      <c r="B64" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="10" t="s">
         <v>475</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="30">
+      <c r="E64" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="37">
         <v>2014</v>
       </c>
-      <c r="B65" s="37" t="s">
+      <c r="B65" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C65" s="9" t="s">
         <v>467</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="10" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="31"/>
-      <c r="B66" s="23" t="s">
+      <c r="E65" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="38"/>
+      <c r="B66" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C66" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D66" s="23" t="s">
+      <c r="D66" s="10" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="32"/>
-      <c r="B67" s="23" t="s">
+      <c r="E66" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="39"/>
+      <c r="B67" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C67" s="22" t="s">
+      <c r="C67" s="9" t="s">
         <v>472</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="10" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="30">
+      <c r="E67" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="37">
         <v>2015</v>
       </c>
-      <c r="B68" s="37" t="s">
+      <c r="B68" s="17" t="s">
         <v>476</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C68" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D68" s="23" t="s">
+      <c r="D68" s="10" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="31"/>
-      <c r="B69" s="23" t="s">
+      <c r="E68" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="38"/>
+      <c r="B69" s="10" t="s">
         <v>478</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C69" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="D69" s="23" t="s">
+      <c r="D69" s="10" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="32"/>
-      <c r="B70" s="23" t="s">
+      <c r="E69" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="39"/>
+      <c r="B70" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C70" s="22" t="s">
+      <c r="C70" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="D70" s="23" t="s">
+      <c r="D70" s="10" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="30">
+      <c r="E70" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="37">
         <v>2016</v>
       </c>
-      <c r="B71" s="37" t="s">
+      <c r="B71" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C71" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="10" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="32"/>
-      <c r="B72" s="23" t="s">
+      <c r="E71" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="39"/>
+      <c r="B72" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C72" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D72" s="23" t="s">
+      <c r="D72" s="10" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="30">
+      <c r="E72" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="37">
         <v>2017</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C73" s="22" t="s">
+      <c r="C73" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="D73" s="23" t="s">
+      <c r="D73" s="10" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="32"/>
-      <c r="B74" s="23" t="s">
+      <c r="E73" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="39"/>
+      <c r="B74" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C74" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="10" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="30">
+      <c r="E74" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="37">
         <v>2018</v>
       </c>
-      <c r="B75" s="37" t="s">
+      <c r="B75" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C75" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="10" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="32"/>
-      <c r="B76" s="23" t="s">
+      <c r="E75" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="39"/>
+      <c r="B76" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C76" s="22" t="s">
+      <c r="C76" s="9" t="s">
         <v>491</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="10" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="30">
+      <c r="E76" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="37">
         <v>2019</v>
       </c>
-      <c r="B77" s="37" t="s">
+      <c r="B77" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C77" s="22" t="s">
+      <c r="C77" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="9" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="31"/>
-      <c r="B78" s="23" t="s">
+      <c r="E77" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="38"/>
+      <c r="B78" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C78" s="22" t="s">
+      <c r="C78" s="9" t="s">
         <v>494</v>
       </c>
-      <c r="D78" s="23" t="s">
+      <c r="D78" s="10" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="32"/>
-      <c r="B79" s="23" t="s">
+      <c r="E78" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="39"/>
+      <c r="B79" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="9" t="s">
         <v>425</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="10" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="30">
+      <c r="E79" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="37">
         <v>2020</v>
       </c>
-      <c r="B80" s="37" t="s">
+      <c r="B80" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C80" s="22" t="s">
+      <c r="C80" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="10" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="31"/>
-      <c r="B81" s="23" t="s">
+      <c r="E80" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="38"/>
+      <c r="B81" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C81" s="22" t="s">
+      <c r="C81" s="9" t="s">
         <v>436</v>
       </c>
-      <c r="D81" s="23" t="s">
+      <c r="D81" s="10" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="32"/>
-      <c r="B82" s="23" t="s">
+      <c r="E81" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="39"/>
+      <c r="B82" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C82" s="22" t="s">
+      <c r="C82" s="9" t="s">
         <v>500</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="10" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="30">
+      <c r="E82" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="37">
         <v>2022</v>
       </c>
-      <c r="B83" s="37" t="s">
+      <c r="B83" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C83" s="22" t="s">
+      <c r="C83" s="9" t="s">
         <v>419</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="10" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="31"/>
-      <c r="B84" s="23" t="s">
+      <c r="E83" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="38"/>
+      <c r="B84" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C84" s="22" t="s">
+      <c r="C84" s="9" t="s">
         <v>503</v>
       </c>
-      <c r="D84" s="23" t="s">
+      <c r="D84" s="10" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="32"/>
-      <c r="B85" s="23" t="s">
+      <c r="E84" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="39"/>
+      <c r="B85" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C85" s="22" t="s">
+      <c r="C85" s="9" t="s">
         <v>458</v>
       </c>
-      <c r="D85" s="23" t="s">
+      <c r="D85" s="10" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="30">
+      <c r="E85" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="37">
         <v>2023</v>
       </c>
-      <c r="B86" s="37" t="s">
+      <c r="B86" s="17" t="s">
         <v>402</v>
       </c>
-      <c r="C86" s="22" t="s">
+      <c r="C86" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="D86" s="23" t="s">
+      <c r="D86" s="10" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="31"/>
-      <c r="B87" s="23" t="s">
+      <c r="E86" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="38"/>
+      <c r="B87" s="10" t="s">
         <v>488</v>
       </c>
-      <c r="C87" s="22" t="s">
+      <c r="C87" s="9" t="s">
         <v>461</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D87" s="10" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="32"/>
-      <c r="B88" s="23" t="s">
+      <c r="E87" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="39"/>
+      <c r="B88" s="10" t="s">
         <v>496</v>
       </c>
-      <c r="C88" s="22" t="s">
+      <c r="C88" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="D88" s="23" t="s">
+      <c r="D88" s="10" t="s">
         <v>510</v>
+      </c>
+      <c r="E88" t="s">
+        <v>514</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A80:A82"/>
@@ -6266,17 +6921,6 @@
     <mergeCell ref="A55:A56"/>
     <mergeCell ref="A59:A60"/>
     <mergeCell ref="A61:A62"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" tooltip="1958" display="https://pt.wikipedia.org/wiki/1958" xr:uid="{1D879CEE-CCBC-47A3-950B-6B1D25FC1A98}"/>
@@ -6431,8 +7075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D661B350-3008-4638-B0E8-B735B36CD619}">
   <dimension ref="A1:X84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6443,2836 +7087,3002 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="25"/>
-      <c r="O1" s="25"/>
-      <c r="P1" s="25"/>
-      <c r="Q1" s="25"/>
-      <c r="R1" s="25"/>
-      <c r="S1" s="25"/>
-      <c r="T1" s="25"/>
-      <c r="U1" s="25"/>
-      <c r="V1" s="25"/>
-      <c r="W1" s="25"/>
-      <c r="X1" s="26"/>
+      <c r="E1" s="8" t="s">
+        <v>512</v>
+      </c>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="12"/>
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="12"/>
+      <c r="V1" s="12"/>
+      <c r="W1" s="12"/>
+      <c r="X1" s="13"/>
     </row>
     <row r="2" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22">
+      <c r="A2" s="9">
         <v>1950</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="D2" s="23" t="s">
+      <c r="D2" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="20"/>
-      <c r="V2" s="20"/>
-      <c r="W2" s="20"/>
-      <c r="X2" s="27"/>
+      <c r="E2" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="14"/>
     </row>
     <row r="3" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="22">
+      <c r="A3" s="9">
         <v>1951</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-      <c r="U3" s="20"/>
-      <c r="V3" s="20"/>
-      <c r="W3" s="20"/>
-      <c r="X3" s="27"/>
+      <c r="E3" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="14"/>
     </row>
     <row r="4" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="22">
+      <c r="A4" s="9">
         <v>1952</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20"/>
-      <c r="W4" s="20"/>
-      <c r="X4" s="27"/>
+      <c r="E4" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="14"/>
     </row>
     <row r="5" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="22">
+      <c r="A5" s="9">
         <v>1953</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="20"/>
-      <c r="W5" s="20"/>
-      <c r="X5" s="27"/>
+      <c r="E5" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7"/>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="14"/>
     </row>
     <row r="6" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="22">
+      <c r="A6" s="9">
         <v>1954</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-      <c r="U6" s="20"/>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-      <c r="X6" s="27"/>
+      <c r="E6" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7"/>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="14"/>
     </row>
     <row r="7" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="22">
+      <c r="A7" s="9">
         <v>1955</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-      <c r="X7" s="27"/>
+      <c r="E7" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7"/>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="14"/>
     </row>
     <row r="8" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30">
+      <c r="A8" s="37">
         <v>1956</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="11" t="s">
         <v>191</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
-      <c r="L8" s="20"/>
-      <c r="M8" s="20"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-      <c r="U8" s="20"/>
-      <c r="V8" s="20"/>
-      <c r="W8" s="20"/>
-      <c r="X8" s="27"/>
+      <c r="E8" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="14"/>
     </row>
     <row r="9" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
-      <c r="B9" s="22" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="10" t="s">
         <v>194</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-      <c r="U9" s="20"/>
-      <c r="V9" s="20"/>
-      <c r="W9" s="20"/>
-      <c r="X9" s="27"/>
+      <c r="E9" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="14"/>
     </row>
     <row r="10" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="23" t="s">
+      <c r="A10" s="39"/>
+      <c r="B10" s="10" t="s">
         <v>195</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="10" t="s">
         <v>196</v>
       </c>
-      <c r="D10" s="23" t="s">
+      <c r="D10" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="27"/>
+      <c r="E10" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="14"/>
     </row>
     <row r="11" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="22">
+      <c r="A11" s="9">
         <v>1957</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-      <c r="U11" s="20"/>
-      <c r="V11" s="20"/>
-      <c r="W11" s="20"/>
-      <c r="X11" s="27"/>
+      <c r="E11" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+      <c r="U11" s="7"/>
+      <c r="V11" s="7"/>
+      <c r="W11" s="7"/>
+      <c r="X11" s="14"/>
     </row>
     <row r="12" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="22">
+      <c r="A12" s="9">
         <v>1958</v>
       </c>
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="23" t="s">
+      <c r="D12" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="20"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-      <c r="U12" s="20"/>
-      <c r="V12" s="20"/>
-      <c r="W12" s="20"/>
-      <c r="X12" s="27"/>
+      <c r="E12" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="7"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+      <c r="W12" s="7"/>
+      <c r="X12" s="14"/>
     </row>
     <row r="13" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22">
+      <c r="A13" s="9">
         <v>1959</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D13" s="23" t="s">
+      <c r="D13" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-      <c r="U13" s="20"/>
-      <c r="V13" s="20"/>
-      <c r="W13" s="20"/>
-      <c r="X13" s="27"/>
+      <c r="E13" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="14"/>
     </row>
     <row r="14" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22">
+      <c r="A14" s="9">
         <v>1960</v>
       </c>
-      <c r="B14" s="22" t="s">
+      <c r="B14" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="D14" s="23" t="s">
+      <c r="D14" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="27"/>
+      <c r="E14" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="14"/>
     </row>
     <row r="15" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22">
+      <c r="A15" s="9">
         <v>1961</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-      <c r="U15" s="20"/>
-      <c r="V15" s="20"/>
-      <c r="W15" s="20"/>
-      <c r="X15" s="27"/>
+      <c r="E15" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="14"/>
     </row>
     <row r="16" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="22">
+      <c r="A16" s="9">
         <v>1962</v>
       </c>
-      <c r="B16" s="22" t="s">
+      <c r="B16" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="20"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-      <c r="U16" s="20"/>
-      <c r="V16" s="20"/>
-      <c r="W16" s="20"/>
-      <c r="X16" s="27"/>
+      <c r="E16" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
+      <c r="W16" s="7"/>
+      <c r="X16" s="14"/>
     </row>
     <row r="17" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22">
+      <c r="A17" s="9">
         <v>1963</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="20"/>
-      <c r="M17" s="20"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-      <c r="U17" s="20"/>
-      <c r="V17" s="20"/>
-      <c r="W17" s="20"/>
-      <c r="X17" s="27"/>
+      <c r="E17" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="14"/>
     </row>
     <row r="18" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="22">
+      <c r="A18" s="9">
         <v>1964</v>
       </c>
-      <c r="B18" s="22" t="s">
+      <c r="B18" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
-      <c r="L18" s="20"/>
-      <c r="M18" s="20"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-      <c r="U18" s="20"/>
-      <c r="V18" s="20"/>
-      <c r="W18" s="20"/>
-      <c r="X18" s="27"/>
+      <c r="E18" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="14"/>
     </row>
     <row r="19" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30">
+      <c r="A19" s="37">
         <v>1965</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="20"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-      <c r="U19" s="20"/>
-      <c r="V19" s="20"/>
-      <c r="W19" s="20"/>
-      <c r="X19" s="27"/>
+      <c r="E19" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="14"/>
     </row>
     <row r="20" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="32"/>
-      <c r="B20" s="22" t="s">
+      <c r="A20" s="39"/>
+      <c r="B20" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
-      <c r="K20" s="20"/>
-      <c r="L20" s="20"/>
-      <c r="M20" s="20"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-      <c r="U20" s="20"/>
-      <c r="V20" s="20"/>
-      <c r="W20" s="20"/>
-      <c r="X20" s="27"/>
+      <c r="E20" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="7"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="14"/>
     </row>
     <row r="21" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="22">
+      <c r="A21" s="9">
         <v>1966</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="20"/>
-      <c r="L21" s="20"/>
-      <c r="M21" s="20"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-      <c r="U21" s="20"/>
-      <c r="V21" s="20"/>
-      <c r="W21" s="20"/>
-      <c r="X21" s="27"/>
+      <c r="E21" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
+      <c r="U21" s="7"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="14"/>
     </row>
     <row r="22" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22">
+      <c r="A22" s="9">
         <v>1967</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="20"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="20"/>
-      <c r="V22" s="20"/>
-      <c r="W22" s="20"/>
-      <c r="X22" s="27"/>
+      <c r="E22" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7"/>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7"/>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7"/>
+      <c r="X22" s="14"/>
     </row>
     <row r="23" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="12"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="12"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="12"/>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="12"/>
-      <c r="T23" s="12"/>
-      <c r="U23" s="12"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="13"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+      <c r="F23" s="41"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="41"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
+      <c r="M23" s="41"/>
+      <c r="N23" s="41"/>
+      <c r="O23" s="41"/>
+      <c r="P23" s="41"/>
+      <c r="Q23" s="41"/>
+      <c r="R23" s="41"/>
+      <c r="S23" s="41"/>
+      <c r="T23" s="41"/>
+      <c r="U23" s="41"/>
+      <c r="V23" s="41"/>
+      <c r="W23" s="41"/>
+      <c r="X23" s="42"/>
     </row>
     <row r="24" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="22">
+      <c r="A24" s="9">
         <v>1968</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="D24" s="23" t="s">
+      <c r="D24" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-      <c r="U24" s="20"/>
-      <c r="V24" s="20"/>
-      <c r="W24" s="20"/>
-      <c r="X24" s="27"/>
+      <c r="E24" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="14"/>
     </row>
     <row r="25" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22">
+      <c r="A25" s="9">
         <v>1969</v>
       </c>
-      <c r="B25" s="22" t="s">
+      <c r="B25" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="D25" s="23" t="s">
+      <c r="D25" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-      <c r="U25" s="20"/>
-      <c r="V25" s="20"/>
-      <c r="W25" s="20"/>
-      <c r="X25" s="27"/>
+      <c r="E25" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="14"/>
     </row>
     <row r="26" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="22">
+      <c r="A26" s="9">
         <v>1970</v>
       </c>
-      <c r="B26" s="22" t="s">
+      <c r="B26" s="9" t="s">
         <v>230</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="D26" s="23" t="s">
+      <c r="D26" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-      <c r="U26" s="20"/>
-      <c r="V26" s="20"/>
-      <c r="W26" s="20"/>
-      <c r="X26" s="27"/>
+      <c r="E26" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
+      <c r="U26" s="7"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="14"/>
     </row>
     <row r="27" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="22">
+      <c r="A27" s="9">
         <v>1971</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="D27" s="23" t="s">
+      <c r="D27" s="10" t="s">
         <v>235</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-      <c r="U27" s="20"/>
-      <c r="V27" s="20"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="27"/>
+      <c r="E27" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+      <c r="M27" s="7"/>
+      <c r="N27" s="7"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
+      <c r="U27" s="7"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="14"/>
     </row>
     <row r="28" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="22">
+      <c r="A28" s="9">
         <v>1972</v>
       </c>
-      <c r="B28" s="22" t="s">
+      <c r="B28" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="D28" s="23" t="s">
+      <c r="D28" s="10" t="s">
         <v>238</v>
       </c>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="20"/>
-      <c r="L28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-      <c r="U28" s="20"/>
-      <c r="V28" s="20"/>
-      <c r="W28" s="20"/>
-      <c r="X28" s="27"/>
+      <c r="E28" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+      <c r="M28" s="7"/>
+      <c r="N28" s="7"/>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
+      <c r="U28" s="7"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="7"/>
+      <c r="X28" s="14"/>
     </row>
     <row r="29" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22">
+      <c r="A29" s="9">
         <v>1973</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="10" t="s">
         <v>241</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
-      <c r="I29" s="20"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-      <c r="U29" s="20"/>
-      <c r="V29" s="20"/>
-      <c r="W29" s="20"/>
-      <c r="X29" s="27"/>
+      <c r="E29" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+      <c r="M29" s="7"/>
+      <c r="N29" s="7"/>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="7"/>
+      <c r="X29" s="14"/>
     </row>
     <row r="30" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="22">
+      <c r="A30" s="9">
         <v>1974</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="9" t="s">
         <v>242</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="D30" s="23" t="s">
+      <c r="D30" s="10" t="s">
         <v>244</v>
       </c>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-      <c r="K30" s="20"/>
-      <c r="L30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
-      <c r="U30" s="20"/>
-      <c r="V30" s="20"/>
-      <c r="W30" s="20"/>
-      <c r="X30" s="27"/>
+      <c r="E30" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="14"/>
     </row>
     <row r="31" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="22">
+      <c r="A31" s="9">
         <v>1975</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="9" t="s">
         <v>245</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="D31" s="23" t="s">
+      <c r="D31" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="20"/>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-      <c r="K31" s="20"/>
-      <c r="L31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="20"/>
-      <c r="P31" s="20"/>
-      <c r="Q31" s="20"/>
-      <c r="R31" s="20"/>
-      <c r="S31" s="20"/>
-      <c r="T31" s="20"/>
-      <c r="U31" s="20"/>
-      <c r="V31" s="20"/>
-      <c r="W31" s="20"/>
-      <c r="X31" s="27"/>
+      <c r="E31" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="14"/>
     </row>
     <row r="32" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="22">
+      <c r="A32" s="9">
         <v>1976</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="11" t="s">
         <v>248</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D32" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="20"/>
-      <c r="O32" s="20"/>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-      <c r="S32" s="20"/>
-      <c r="T32" s="20"/>
-      <c r="U32" s="20"/>
-      <c r="V32" s="20"/>
-      <c r="W32" s="20"/>
-      <c r="X32" s="27"/>
+      <c r="E32" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="7"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="7"/>
+      <c r="X32" s="14"/>
     </row>
     <row r="33" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="22">
+      <c r="A33" s="9">
         <v>1977</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="9" t="s">
         <v>249</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="D33" s="23" t="s">
+      <c r="D33" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="20"/>
-      <c r="O33" s="20"/>
-      <c r="P33" s="20"/>
-      <c r="Q33" s="20"/>
-      <c r="R33" s="20"/>
-      <c r="S33" s="20"/>
-      <c r="T33" s="20"/>
-      <c r="U33" s="20"/>
-      <c r="V33" s="20"/>
-      <c r="W33" s="20"/>
-      <c r="X33" s="27"/>
+      <c r="E33" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="7"/>
+      <c r="X33" s="14"/>
     </row>
     <row r="34" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="22">
+      <c r="A34" s="9">
         <v>1978</v>
       </c>
-      <c r="B34" s="22" t="s">
+      <c r="B34" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="D34" s="23" t="s">
+      <c r="D34" s="10" t="s">
         <v>254</v>
       </c>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="20"/>
-      <c r="O34" s="20"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-      <c r="S34" s="20"/>
-      <c r="T34" s="20"/>
-      <c r="U34" s="20"/>
-      <c r="V34" s="20"/>
-      <c r="W34" s="20"/>
-      <c r="X34" s="27"/>
+      <c r="E34" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="7"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="7"/>
+      <c r="X34" s="14"/>
     </row>
     <row r="35" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="22">
+      <c r="A35" s="9">
         <v>1979</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="9" t="s">
         <v>255</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="D35" s="23" t="s">
+      <c r="D35" s="10" t="s">
         <v>251</v>
       </c>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="20"/>
-      <c r="O35" s="20"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-      <c r="S35" s="20"/>
-      <c r="T35" s="20"/>
-      <c r="U35" s="20"/>
-      <c r="V35" s="20"/>
-      <c r="W35" s="20"/>
-      <c r="X35" s="27"/>
+      <c r="E35" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="14"/>
     </row>
     <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="22">
+      <c r="A36" s="9">
         <v>1980</v>
       </c>
-      <c r="B36" s="22" t="s">
+      <c r="B36" s="9" t="s">
         <v>257</v>
       </c>
-      <c r="C36" s="24" t="s">
+      <c r="C36" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="D36" s="23" t="s">
+      <c r="D36" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="20"/>
-      <c r="O36" s="20"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-      <c r="S36" s="20"/>
-      <c r="T36" s="20"/>
-      <c r="U36" s="20"/>
-      <c r="V36" s="20"/>
-      <c r="W36" s="20"/>
-      <c r="X36" s="27"/>
+      <c r="E36" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="7"/>
+      <c r="X36" s="14"/>
     </row>
     <row r="37" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="22">
+      <c r="A37" s="9">
         <v>1981</v>
       </c>
-      <c r="B37" s="22" t="s">
+      <c r="B37" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="C37" s="24" t="s">
+      <c r="C37" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="D37" s="23" t="s">
+      <c r="D37" s="10" t="s">
         <v>262</v>
       </c>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-      <c r="P37" s="20"/>
-      <c r="Q37" s="20"/>
-      <c r="R37" s="20"/>
-      <c r="S37" s="20"/>
-      <c r="T37" s="20"/>
-      <c r="U37" s="20"/>
-      <c r="V37" s="20"/>
-      <c r="W37" s="20"/>
-      <c r="X37" s="27"/>
+      <c r="E37" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="7"/>
+      <c r="X37" s="14"/>
     </row>
     <row r="38" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="22">
+      <c r="A38" s="9">
         <v>1982</v>
       </c>
-      <c r="B38" s="22" t="s">
+      <c r="B38" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="C38" s="24" t="s">
+      <c r="C38" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="D38" s="23" t="s">
+      <c r="D38" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="20"/>
-      <c r="O38" s="20"/>
-      <c r="P38" s="20"/>
-      <c r="Q38" s="20"/>
-      <c r="R38" s="20"/>
-      <c r="S38" s="20"/>
-      <c r="T38" s="20"/>
-      <c r="U38" s="20"/>
-      <c r="V38" s="20"/>
-      <c r="W38" s="20"/>
-      <c r="X38" s="27"/>
+      <c r="E38" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
+      <c r="U38" s="7"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="14"/>
     </row>
     <row r="39" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="22">
+      <c r="A39" s="9">
         <v>1983</v>
       </c>
-      <c r="B39" s="22" t="s">
+      <c r="B39" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="C39" s="24" t="s">
+      <c r="C39" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="D39" s="23" t="s">
+      <c r="D39" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
-      <c r="O39" s="20"/>
-      <c r="P39" s="20"/>
-      <c r="Q39" s="20"/>
-      <c r="R39" s="20"/>
-      <c r="S39" s="20"/>
-      <c r="T39" s="20"/>
-      <c r="U39" s="20"/>
-      <c r="V39" s="20"/>
-      <c r="W39" s="20"/>
-      <c r="X39" s="27"/>
+      <c r="E39" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
+      <c r="U39" s="7"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="14"/>
     </row>
     <row r="40" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="22">
+      <c r="A40" s="9">
         <v>1984</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="D40" s="23" t="s">
+      <c r="D40" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="20"/>
-      <c r="O40" s="20"/>
-      <c r="P40" s="20"/>
-      <c r="Q40" s="20"/>
-      <c r="R40" s="20"/>
-      <c r="S40" s="20"/>
-      <c r="T40" s="20"/>
-      <c r="U40" s="20"/>
-      <c r="V40" s="20"/>
-      <c r="W40" s="20"/>
-      <c r="X40" s="27"/>
+      <c r="E40" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
+      <c r="U40" s="7"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="14"/>
     </row>
     <row r="41" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="22">
+      <c r="A41" s="9">
         <v>1985</v>
       </c>
-      <c r="B41" s="22" t="s">
+      <c r="B41" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="C41" s="24" t="s">
+      <c r="C41" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D41" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
-      <c r="O41" s="20"/>
-      <c r="P41" s="20"/>
-      <c r="Q41" s="20"/>
-      <c r="R41" s="20"/>
-      <c r="S41" s="20"/>
-      <c r="T41" s="20"/>
-      <c r="U41" s="20"/>
-      <c r="V41" s="20"/>
-      <c r="W41" s="20"/>
-      <c r="X41" s="27"/>
+      <c r="E41" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
+      <c r="U41" s="7"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="14"/>
     </row>
     <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="22">
+      <c r="A42" s="9">
         <v>1986</v>
       </c>
-      <c r="B42" s="22" t="s">
+      <c r="B42" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="C42" s="24" t="s">
+      <c r="C42" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D42" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-      <c r="N42" s="20"/>
-      <c r="O42" s="20"/>
-      <c r="P42" s="20"/>
-      <c r="Q42" s="20"/>
-      <c r="R42" s="20"/>
-      <c r="S42" s="20"/>
-      <c r="T42" s="20"/>
-      <c r="U42" s="20"/>
-      <c r="V42" s="20"/>
-      <c r="W42" s="20"/>
-      <c r="X42" s="27"/>
+      <c r="E42" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="14"/>
     </row>
     <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="22">
+      <c r="A43" s="9">
         <v>1987</v>
       </c>
-      <c r="B43" s="22" t="s">
+      <c r="B43" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="C43" s="24" t="s">
+      <c r="C43" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D43" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-      <c r="N43" s="20"/>
-      <c r="O43" s="20"/>
-      <c r="P43" s="20"/>
-      <c r="Q43" s="20"/>
-      <c r="R43" s="20"/>
-      <c r="S43" s="20"/>
-      <c r="T43" s="20"/>
-      <c r="U43" s="20"/>
-      <c r="V43" s="20"/>
-      <c r="W43" s="20"/>
-      <c r="X43" s="27"/>
+      <c r="E43" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="14"/>
     </row>
     <row r="44" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="22">
+      <c r="A44" s="9">
         <v>1988</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="9" t="s">
         <v>281</v>
       </c>
-      <c r="C44" s="24" t="s">
+      <c r="C44" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="D44" s="23" t="s">
+      <c r="D44" s="10" t="s">
         <v>283</v>
       </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-      <c r="N44" s="20"/>
-      <c r="O44" s="20"/>
-      <c r="P44" s="20"/>
-      <c r="Q44" s="20"/>
-      <c r="R44" s="20"/>
-      <c r="S44" s="20"/>
-      <c r="T44" s="20"/>
-      <c r="U44" s="20"/>
-      <c r="V44" s="20"/>
-      <c r="W44" s="20"/>
-      <c r="X44" s="27"/>
+      <c r="E44" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+      <c r="U44" s="7"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="7"/>
+      <c r="X44" s="14"/>
     </row>
     <row r="45" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="23">
+      <c r="A45" s="10">
         <v>1989</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B45" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="C45" s="24" t="s">
+      <c r="C45" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="D45" s="23" t="s">
+      <c r="D45" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-      <c r="N45" s="20"/>
-      <c r="O45" s="20"/>
-      <c r="P45" s="20"/>
-      <c r="Q45" s="20"/>
-      <c r="R45" s="20"/>
-      <c r="S45" s="20"/>
-      <c r="T45" s="20"/>
-      <c r="U45" s="20"/>
-      <c r="V45" s="20"/>
-      <c r="W45" s="20"/>
-      <c r="X45" s="27"/>
+      <c r="E45" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="14"/>
     </row>
     <row r="46" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="30">
+      <c r="A46" s="37">
         <v>1990</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="C46" s="24" t="s">
+      <c r="C46" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="20"/>
-      <c r="P46" s="20"/>
-      <c r="Q46" s="20"/>
-      <c r="R46" s="20"/>
-      <c r="S46" s="20"/>
-      <c r="T46" s="20"/>
-      <c r="U46" s="20"/>
-      <c r="V46" s="20"/>
-      <c r="W46" s="20"/>
-      <c r="X46" s="27"/>
+      <c r="E46" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="7"/>
+      <c r="X46" s="14"/>
     </row>
     <row r="47" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="32"/>
-      <c r="B47" s="22" t="s">
+      <c r="A47" s="39"/>
+      <c r="B47" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C47" s="24" t="s">
+      <c r="C47" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="D47" s="23" t="s">
+      <c r="D47" s="10" t="s">
         <v>291</v>
       </c>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-      <c r="N47" s="20"/>
-      <c r="O47" s="20"/>
-      <c r="P47" s="20"/>
-      <c r="Q47" s="20"/>
-      <c r="R47" s="20"/>
-      <c r="S47" s="20"/>
-      <c r="T47" s="20"/>
-      <c r="U47" s="20"/>
-      <c r="V47" s="20"/>
-      <c r="W47" s="20"/>
-      <c r="X47" s="27"/>
+      <c r="E47" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+      <c r="U47" s="7"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="7"/>
+      <c r="X47" s="14"/>
     </row>
     <row r="48" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="30">
+      <c r="A48" s="37">
         <v>1991</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="C48" s="24" t="s">
+      <c r="C48" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="D48" s="23" t="s">
+      <c r="D48" s="10" t="s">
         <v>294</v>
       </c>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-      <c r="N48" s="20"/>
-      <c r="O48" s="20"/>
-      <c r="P48" s="20"/>
-      <c r="Q48" s="20"/>
-      <c r="R48" s="20"/>
-      <c r="S48" s="20"/>
-      <c r="T48" s="20"/>
-      <c r="U48" s="20"/>
-      <c r="V48" s="20"/>
-      <c r="W48" s="20"/>
-      <c r="X48" s="27"/>
+      <c r="E48" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="7"/>
+      <c r="K48" s="7"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="7"/>
+      <c r="X48" s="14"/>
     </row>
     <row r="49" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="32"/>
-      <c r="B49" s="22" t="s">
+      <c r="A49" s="39"/>
+      <c r="B49" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="C49" s="24" t="s">
+      <c r="C49" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D49" s="23" t="s">
+      <c r="D49" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="20"/>
-      <c r="M49" s="20"/>
-      <c r="N49" s="20"/>
-      <c r="O49" s="20"/>
-      <c r="P49" s="20"/>
-      <c r="Q49" s="20"/>
-      <c r="R49" s="20"/>
-      <c r="S49" s="20"/>
-      <c r="T49" s="20"/>
-      <c r="U49" s="20"/>
-      <c r="V49" s="20"/>
-      <c r="W49" s="20"/>
-      <c r="X49" s="27"/>
+      <c r="E49" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="7"/>
+      <c r="K49" s="7"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="7"/>
+      <c r="X49" s="14"/>
     </row>
     <row r="50" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="22">
+      <c r="A50" s="9">
         <v>1992</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="9" t="s">
         <v>298</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D50" s="23" t="s">
+      <c r="D50" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="20"/>
-      <c r="M50" s="20"/>
-      <c r="N50" s="20"/>
-      <c r="O50" s="20"/>
-      <c r="P50" s="20"/>
-      <c r="Q50" s="20"/>
-      <c r="R50" s="20"/>
-      <c r="S50" s="20"/>
-      <c r="T50" s="20"/>
-      <c r="U50" s="20"/>
-      <c r="V50" s="20"/>
-      <c r="W50" s="20"/>
-      <c r="X50" s="27"/>
+      <c r="E50" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="7"/>
+      <c r="K50" s="7"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
+      <c r="U50" s="7"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="7"/>
+      <c r="X50" s="14"/>
     </row>
     <row r="51" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="30">
+      <c r="A51" s="37">
         <v>1993</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D51" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="20"/>
-      <c r="M51" s="20"/>
-      <c r="N51" s="20"/>
-      <c r="O51" s="20"/>
-      <c r="P51" s="20"/>
-      <c r="Q51" s="20"/>
-      <c r="R51" s="20"/>
-      <c r="S51" s="20"/>
-      <c r="T51" s="20"/>
-      <c r="U51" s="20"/>
-      <c r="V51" s="20"/>
-      <c r="W51" s="20"/>
-      <c r="X51" s="27"/>
+      <c r="E51" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="7"/>
+      <c r="K51" s="7"/>
+      <c r="L51" s="7"/>
+      <c r="M51" s="7"/>
+      <c r="N51" s="7"/>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="7"/>
+      <c r="R51" s="7"/>
+      <c r="S51" s="7"/>
+      <c r="T51" s="7"/>
+      <c r="U51" s="7"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="7"/>
+      <c r="X51" s="14"/>
     </row>
     <row r="52" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32"/>
-      <c r="B52" s="22" t="s">
+      <c r="A52" s="39"/>
+      <c r="B52" s="9" t="s">
         <v>302</v>
       </c>
-      <c r="C52" s="24" t="s">
+      <c r="C52" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="D52" s="23" t="s">
+      <c r="D52" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="20"/>
-      <c r="M52" s="20"/>
-      <c r="N52" s="20"/>
-      <c r="O52" s="20"/>
-      <c r="P52" s="20"/>
-      <c r="Q52" s="20"/>
-      <c r="R52" s="20"/>
-      <c r="S52" s="20"/>
-      <c r="T52" s="20"/>
-      <c r="U52" s="20"/>
-      <c r="V52" s="20"/>
-      <c r="W52" s="20"/>
-      <c r="X52" s="27"/>
+      <c r="E52" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="7"/>
+      <c r="K52" s="7"/>
+      <c r="L52" s="7"/>
+      <c r="M52" s="7"/>
+      <c r="N52" s="7"/>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="7"/>
+      <c r="R52" s="7"/>
+      <c r="S52" s="7"/>
+      <c r="T52" s="7"/>
+      <c r="U52" s="7"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="7"/>
+      <c r="X52" s="14"/>
     </row>
     <row r="53" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="22">
+      <c r="A53" s="9">
         <v>1994</v>
       </c>
-      <c r="B53" s="22" t="s">
+      <c r="B53" s="9" t="s">
         <v>304</v>
       </c>
-      <c r="C53" s="24" t="s">
+      <c r="C53" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="D53" s="23" t="s">
+      <c r="D53" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="20"/>
-      <c r="I53" s="20"/>
-      <c r="J53" s="20"/>
-      <c r="K53" s="20"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
-      <c r="O53" s="20"/>
-      <c r="P53" s="20"/>
-      <c r="Q53" s="20"/>
-      <c r="R53" s="20"/>
-      <c r="S53" s="20"/>
-      <c r="T53" s="20"/>
-      <c r="U53" s="20"/>
-      <c r="V53" s="20"/>
-      <c r="W53" s="20"/>
-      <c r="X53" s="27"/>
+      <c r="E53" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="7"/>
+      <c r="K53" s="7"/>
+      <c r="L53" s="7"/>
+      <c r="M53" s="7"/>
+      <c r="N53" s="7"/>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="7"/>
+      <c r="S53" s="7"/>
+      <c r="T53" s="7"/>
+      <c r="U53" s="7"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="7"/>
+      <c r="X53" s="14"/>
     </row>
     <row r="54" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="22">
+      <c r="A54" s="9">
         <v>1995</v>
       </c>
-      <c r="B54" s="22" t="s">
+      <c r="B54" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C54" s="24" t="s">
+      <c r="C54" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="D54" s="23" t="s">
+      <c r="D54" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
-      <c r="G54" s="20"/>
-      <c r="H54" s="20"/>
-      <c r="I54" s="20"/>
-      <c r="J54" s="20"/>
-      <c r="K54" s="20"/>
-      <c r="L54" s="20"/>
-      <c r="M54" s="20"/>
-      <c r="N54" s="20"/>
-      <c r="O54" s="20"/>
-      <c r="P54" s="20"/>
-      <c r="Q54" s="20"/>
-      <c r="R54" s="20"/>
-      <c r="S54" s="20"/>
-      <c r="T54" s="20"/>
-      <c r="U54" s="20"/>
-      <c r="V54" s="20"/>
-      <c r="W54" s="20"/>
-      <c r="X54" s="27"/>
+      <c r="E54" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="14"/>
     </row>
     <row r="55" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="22">
+      <c r="A55" s="9">
         <v>1996</v>
       </c>
-      <c r="B55" s="22" t="s">
+      <c r="B55" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="C55" s="24" t="s">
+      <c r="C55" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="D55" s="23" t="s">
+      <c r="D55" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="20"/>
-      <c r="I55" s="20"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
-      <c r="O55" s="20"/>
-      <c r="P55" s="20"/>
-      <c r="Q55" s="20"/>
-      <c r="R55" s="20"/>
-      <c r="S55" s="20"/>
-      <c r="T55" s="20"/>
-      <c r="U55" s="20"/>
-      <c r="V55" s="20"/>
-      <c r="W55" s="20"/>
-      <c r="X55" s="27"/>
+      <c r="E55" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
+      <c r="L55" s="7"/>
+      <c r="M55" s="7"/>
+      <c r="N55" s="7"/>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="7"/>
+      <c r="R55" s="7"/>
+      <c r="S55" s="7"/>
+      <c r="T55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="V55" s="7"/>
+      <c r="W55" s="7"/>
+      <c r="X55" s="14"/>
     </row>
     <row r="56" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="22">
+      <c r="A56" s="9">
         <v>1997</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B56" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C56" s="24" t="s">
+      <c r="C56" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="D56" s="23" t="s">
+      <c r="D56" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
-      <c r="G56" s="20"/>
-      <c r="H56" s="20"/>
-      <c r="I56" s="20"/>
-      <c r="J56" s="20"/>
-      <c r="K56" s="20"/>
-      <c r="L56" s="20"/>
-      <c r="M56" s="20"/>
-      <c r="N56" s="20"/>
-      <c r="O56" s="20"/>
-      <c r="P56" s="20"/>
-      <c r="Q56" s="20"/>
-      <c r="R56" s="20"/>
-      <c r="S56" s="20"/>
-      <c r="T56" s="20"/>
-      <c r="U56" s="20"/>
-      <c r="V56" s="20"/>
-      <c r="W56" s="20"/>
-      <c r="X56" s="27"/>
+      <c r="E56" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+      <c r="H56" s="7"/>
+      <c r="I56" s="7"/>
+      <c r="J56" s="7"/>
+      <c r="K56" s="7"/>
+      <c r="L56" s="7"/>
+      <c r="M56" s="7"/>
+      <c r="N56" s="7"/>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="7"/>
+      <c r="R56" s="7"/>
+      <c r="S56" s="7"/>
+      <c r="T56" s="7"/>
+      <c r="U56" s="7"/>
+      <c r="V56" s="7"/>
+      <c r="W56" s="7"/>
+      <c r="X56" s="14"/>
     </row>
     <row r="57" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="22">
+      <c r="A57" s="9">
         <v>1998</v>
       </c>
-      <c r="B57" s="22" t="s">
+      <c r="B57" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="C57" s="24" t="s">
+      <c r="C57" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="D57" s="22" t="s">
+      <c r="D57" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
-      <c r="G57" s="20"/>
-      <c r="H57" s="20"/>
-      <c r="I57" s="20"/>
-      <c r="J57" s="20"/>
-      <c r="K57" s="20"/>
-      <c r="L57" s="20"/>
-      <c r="M57" s="20"/>
-      <c r="N57" s="20"/>
-      <c r="O57" s="20"/>
-      <c r="P57" s="20"/>
-      <c r="Q57" s="20"/>
-      <c r="R57" s="20"/>
-      <c r="S57" s="20"/>
-      <c r="T57" s="20"/>
-      <c r="U57" s="20"/>
-      <c r="V57" s="20"/>
-      <c r="W57" s="20"/>
-      <c r="X57" s="27"/>
+      <c r="E57" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
+      <c r="L57" s="7"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+      <c r="R57" s="7"/>
+      <c r="S57" s="7"/>
+      <c r="T57" s="7"/>
+      <c r="U57" s="7"/>
+      <c r="V57" s="7"/>
+      <c r="W57" s="7"/>
+      <c r="X57" s="14"/>
     </row>
     <row r="58" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="30">
+      <c r="A58" s="37">
         <v>1999</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="C58" s="24" t="s">
+      <c r="C58" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D58" s="22" t="s">
+      <c r="D58" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
-      <c r="G58" s="20"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-      <c r="J58" s="20"/>
-      <c r="K58" s="20"/>
-      <c r="L58" s="20"/>
-      <c r="M58" s="20"/>
-      <c r="N58" s="20"/>
-      <c r="O58" s="20"/>
-      <c r="P58" s="20"/>
-      <c r="Q58" s="20"/>
-      <c r="R58" s="20"/>
-      <c r="S58" s="20"/>
-      <c r="T58" s="20"/>
-      <c r="U58" s="20"/>
-      <c r="V58" s="20"/>
-      <c r="W58" s="20"/>
-      <c r="X58" s="27"/>
+      <c r="E58" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+      <c r="L58" s="7"/>
+      <c r="M58" s="7"/>
+      <c r="N58" s="7"/>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="7"/>
+      <c r="R58" s="7"/>
+      <c r="S58" s="7"/>
+      <c r="T58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="V58" s="7"/>
+      <c r="W58" s="7"/>
+      <c r="X58" s="14"/>
     </row>
     <row r="59" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="32"/>
-      <c r="B59" s="22" t="s">
+      <c r="A59" s="39"/>
+      <c r="B59" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="C59" s="24" t="s">
+      <c r="C59" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
-      <c r="G59" s="20"/>
-      <c r="H59" s="20"/>
-      <c r="I59" s="20"/>
-      <c r="J59" s="20"/>
-      <c r="K59" s="20"/>
-      <c r="L59" s="20"/>
-      <c r="M59" s="20"/>
-      <c r="N59" s="20"/>
-      <c r="O59" s="20"/>
-      <c r="P59" s="20"/>
-      <c r="Q59" s="20"/>
-      <c r="R59" s="20"/>
-      <c r="S59" s="20"/>
-      <c r="T59" s="20"/>
-      <c r="U59" s="20"/>
-      <c r="V59" s="20"/>
-      <c r="W59" s="20"/>
-      <c r="X59" s="27"/>
+      <c r="E59" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="7"/>
+      <c r="I59" s="7"/>
+      <c r="J59" s="7"/>
+      <c r="K59" s="7"/>
+      <c r="L59" s="7"/>
+      <c r="M59" s="7"/>
+      <c r="N59" s="7"/>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="7"/>
+      <c r="R59" s="7"/>
+      <c r="S59" s="7"/>
+      <c r="T59" s="7"/>
+      <c r="U59" s="7"/>
+      <c r="V59" s="7"/>
+      <c r="W59" s="7"/>
+      <c r="X59" s="14"/>
     </row>
     <row r="60" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="30">
+      <c r="A60" s="37">
         <v>2000</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="9" t="s">
         <v>322</v>
       </c>
-      <c r="C60" s="24" t="s">
+      <c r="C60" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="D60" s="23" t="s">
+      <c r="D60" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
-      <c r="G60" s="20"/>
-      <c r="H60" s="20"/>
-      <c r="I60" s="20"/>
-      <c r="J60" s="20"/>
-      <c r="K60" s="20"/>
-      <c r="L60" s="20"/>
-      <c r="M60" s="20"/>
-      <c r="N60" s="20"/>
-      <c r="O60" s="20"/>
-      <c r="P60" s="20"/>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="20"/>
-      <c r="S60" s="20"/>
-      <c r="T60" s="20"/>
-      <c r="U60" s="20"/>
-      <c r="V60" s="20"/>
-      <c r="W60" s="20"/>
-      <c r="X60" s="27"/>
+      <c r="E60" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="14"/>
     </row>
     <row r="61" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="32"/>
-      <c r="B61" s="22" t="s">
+      <c r="A61" s="39"/>
+      <c r="B61" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="C61" s="24" t="s">
+      <c r="C61" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="9" t="s">
         <v>327</v>
       </c>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
-      <c r="G61" s="20"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="20"/>
-      <c r="L61" s="20"/>
-      <c r="M61" s="20"/>
-      <c r="N61" s="20"/>
-      <c r="O61" s="20"/>
-      <c r="P61" s="20"/>
-      <c r="Q61" s="20"/>
-      <c r="R61" s="20"/>
-      <c r="S61" s="20"/>
-      <c r="T61" s="20"/>
-      <c r="U61" s="20"/>
-      <c r="V61" s="20"/>
-      <c r="W61" s="20"/>
-      <c r="X61" s="27"/>
+      <c r="E61" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="7"/>
+      <c r="L61" s="7"/>
+      <c r="M61" s="7"/>
+      <c r="N61" s="7"/>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="7"/>
+      <c r="R61" s="7"/>
+      <c r="S61" s="7"/>
+      <c r="T61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="V61" s="7"/>
+      <c r="W61" s="7"/>
+      <c r="X61" s="14"/>
     </row>
     <row r="62" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30">
+      <c r="A62" s="37">
         <v>2001</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="C62" s="24" t="s">
+      <c r="C62" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="D62" s="22" t="s">
+      <c r="D62" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
-      <c r="G62" s="20"/>
-      <c r="H62" s="20"/>
-      <c r="I62" s="20"/>
-      <c r="J62" s="20"/>
-      <c r="K62" s="20"/>
-      <c r="L62" s="20"/>
-      <c r="M62" s="20"/>
-      <c r="N62" s="20"/>
-      <c r="O62" s="20"/>
-      <c r="P62" s="20"/>
-      <c r="Q62" s="20"/>
-      <c r="R62" s="20"/>
-      <c r="S62" s="20"/>
-      <c r="T62" s="20"/>
-      <c r="U62" s="20"/>
-      <c r="V62" s="20"/>
-      <c r="W62" s="20"/>
-      <c r="X62" s="27"/>
+      <c r="E62" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="7"/>
+      <c r="I62" s="7"/>
+      <c r="J62" s="7"/>
+      <c r="K62" s="7"/>
+      <c r="L62" s="7"/>
+      <c r="M62" s="7"/>
+      <c r="N62" s="7"/>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="7"/>
+      <c r="R62" s="7"/>
+      <c r="S62" s="7"/>
+      <c r="T62" s="7"/>
+      <c r="U62" s="7"/>
+      <c r="V62" s="7"/>
+      <c r="W62" s="7"/>
+      <c r="X62" s="14"/>
     </row>
     <row r="63" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="32"/>
-      <c r="B63" s="22" t="s">
+      <c r="A63" s="39"/>
+      <c r="B63" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="C63" s="24" t="s">
+      <c r="C63" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D63" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="E63" s="20"/>
-      <c r="F63" s="20"/>
-      <c r="G63" s="20"/>
-      <c r="H63" s="20"/>
-      <c r="I63" s="20"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
-      <c r="L63" s="20"/>
-      <c r="M63" s="20"/>
-      <c r="N63" s="20"/>
-      <c r="O63" s="20"/>
-      <c r="P63" s="20"/>
-      <c r="Q63" s="20"/>
-      <c r="R63" s="20"/>
-      <c r="S63" s="20"/>
-      <c r="T63" s="20"/>
-      <c r="U63" s="20"/>
-      <c r="V63" s="20"/>
-      <c r="W63" s="20"/>
-      <c r="X63" s="27"/>
+      <c r="E63" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="7"/>
+      <c r="I63" s="7"/>
+      <c r="J63" s="7"/>
+      <c r="K63" s="7"/>
+      <c r="L63" s="7"/>
+      <c r="M63" s="7"/>
+      <c r="N63" s="7"/>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="7"/>
+      <c r="R63" s="7"/>
+      <c r="S63" s="7"/>
+      <c r="T63" s="7"/>
+      <c r="U63" s="7"/>
+      <c r="V63" s="7"/>
+      <c r="W63" s="7"/>
+      <c r="X63" s="14"/>
     </row>
     <row r="64" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="22">
+      <c r="A64" s="9">
         <v>2002</v>
       </c>
-      <c r="B64" s="22" t="s">
+      <c r="B64" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="C64" s="24" t="s">
+      <c r="C64" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="D64" s="23" t="s">
+      <c r="D64" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E64" s="20"/>
-      <c r="F64" s="20"/>
-      <c r="G64" s="20"/>
-      <c r="H64" s="20"/>
-      <c r="I64" s="20"/>
-      <c r="J64" s="20"/>
-      <c r="K64" s="20"/>
-      <c r="L64" s="20"/>
-      <c r="M64" s="20"/>
-      <c r="N64" s="20"/>
-      <c r="O64" s="20"/>
-      <c r="P64" s="20"/>
-      <c r="Q64" s="20"/>
-      <c r="R64" s="20"/>
-      <c r="S64" s="20"/>
-      <c r="T64" s="20"/>
-      <c r="U64" s="20"/>
-      <c r="V64" s="20"/>
-      <c r="W64" s="20"/>
-      <c r="X64" s="27"/>
+      <c r="E64" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="7"/>
+      <c r="I64" s="7"/>
+      <c r="J64" s="7"/>
+      <c r="K64" s="7"/>
+      <c r="L64" s="7"/>
+      <c r="M64" s="7"/>
+      <c r="N64" s="7"/>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="7"/>
+      <c r="R64" s="7"/>
+      <c r="S64" s="7"/>
+      <c r="T64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="V64" s="7"/>
+      <c r="W64" s="7"/>
+      <c r="X64" s="14"/>
     </row>
     <row r="65" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="22">
+      <c r="A65" s="9">
         <v>2003</v>
       </c>
-      <c r="B65" s="22" t="s">
+      <c r="B65" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="C65" s="23" t="s">
+      <c r="C65" s="10" t="s">
         <v>337</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D65" s="10" t="s">
         <v>335</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="20"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="20"/>
-      <c r="W65" s="20"/>
-      <c r="X65" s="27"/>
+      <c r="E65" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="7"/>
+      <c r="I65" s="7"/>
+      <c r="J65" s="7"/>
+      <c r="K65" s="7"/>
+      <c r="L65" s="7"/>
+      <c r="M65" s="7"/>
+      <c r="N65" s="7"/>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="7"/>
+      <c r="R65" s="7"/>
+      <c r="S65" s="7"/>
+      <c r="T65" s="7"/>
+      <c r="U65" s="7"/>
+      <c r="V65" s="7"/>
+      <c r="W65" s="7"/>
+      <c r="X65" s="14"/>
     </row>
     <row r="66" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="22">
+      <c r="A66" s="9">
         <v>2004</v>
       </c>
-      <c r="B66" s="22" t="s">
+      <c r="B66" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="C66" s="24" t="s">
+      <c r="C66" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="D66" s="22" t="s">
+      <c r="D66" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
-      <c r="G66" s="20"/>
-      <c r="H66" s="20"/>
-      <c r="I66" s="20"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="20"/>
-      <c r="L66" s="20"/>
-      <c r="M66" s="20"/>
-      <c r="N66" s="20"/>
-      <c r="O66" s="20"/>
-      <c r="P66" s="20"/>
-      <c r="Q66" s="20"/>
-      <c r="R66" s="20"/>
-      <c r="S66" s="20"/>
-      <c r="T66" s="20"/>
-      <c r="U66" s="20"/>
-      <c r="V66" s="20"/>
-      <c r="W66" s="20"/>
-      <c r="X66" s="27"/>
+      <c r="E66" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="14"/>
     </row>
     <row r="67" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="22">
+      <c r="A67" s="9">
         <v>2005</v>
       </c>
-      <c r="B67" s="22" t="s">
+      <c r="B67" s="9" t="s">
         <v>341</v>
       </c>
-      <c r="C67" s="24" t="s">
+      <c r="C67" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="D67" s="23" t="s">
+      <c r="D67" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="20"/>
-      <c r="I67" s="20"/>
-      <c r="J67" s="20"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
-      <c r="N67" s="20"/>
-      <c r="O67" s="20"/>
-      <c r="P67" s="20"/>
-      <c r="Q67" s="20"/>
-      <c r="R67" s="20"/>
-      <c r="S67" s="20"/>
-      <c r="T67" s="20"/>
-      <c r="U67" s="20"/>
-      <c r="V67" s="20"/>
-      <c r="W67" s="20"/>
-      <c r="X67" s="27"/>
+      <c r="E67" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="7"/>
+      <c r="I67" s="7"/>
+      <c r="J67" s="7"/>
+      <c r="K67" s="7"/>
+      <c r="L67" s="7"/>
+      <c r="M67" s="7"/>
+      <c r="N67" s="7"/>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="7"/>
+      <c r="R67" s="7"/>
+      <c r="S67" s="7"/>
+      <c r="T67" s="7"/>
+      <c r="U67" s="7"/>
+      <c r="V67" s="7"/>
+      <c r="W67" s="7"/>
+      <c r="X67" s="14"/>
     </row>
     <row r="68" spans="1:24" ht="72" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="22">
+      <c r="A68" s="9">
         <v>2006</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="B68" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="C68" s="24" t="s">
+      <c r="C68" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D68" s="22" t="s">
+      <c r="D68" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
-      <c r="G68" s="20"/>
-      <c r="H68" s="20"/>
-      <c r="I68" s="20"/>
-      <c r="J68" s="20"/>
-      <c r="K68" s="20"/>
-      <c r="L68" s="20"/>
-      <c r="M68" s="20"/>
-      <c r="N68" s="20"/>
-      <c r="O68" s="20"/>
-      <c r="P68" s="20"/>
-      <c r="Q68" s="20"/>
-      <c r="R68" s="20"/>
-      <c r="S68" s="20"/>
-      <c r="T68" s="20"/>
-      <c r="U68" s="20"/>
-      <c r="V68" s="20"/>
-      <c r="W68" s="20"/>
-      <c r="X68" s="27"/>
+      <c r="E68" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="7"/>
+      <c r="I68" s="7"/>
+      <c r="J68" s="7"/>
+      <c r="K68" s="7"/>
+      <c r="L68" s="7"/>
+      <c r="M68" s="7"/>
+      <c r="N68" s="7"/>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="7"/>
+      <c r="R68" s="7"/>
+      <c r="S68" s="7"/>
+      <c r="T68" s="7"/>
+      <c r="U68" s="7"/>
+      <c r="V68" s="7"/>
+      <c r="W68" s="7"/>
+      <c r="X68" s="14"/>
     </row>
     <row r="69" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="22">
+      <c r="A69" s="9">
         <v>2007</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="B69" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C69" s="24" t="s">
+      <c r="C69" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="D69" s="22" t="s">
+      <c r="D69" s="9" t="s">
         <v>349</v>
       </c>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="20"/>
-      <c r="I69" s="20"/>
-      <c r="J69" s="20"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
-      <c r="N69" s="20"/>
-      <c r="O69" s="20"/>
-      <c r="P69" s="20"/>
-      <c r="Q69" s="20"/>
-      <c r="R69" s="20"/>
-      <c r="S69" s="20"/>
-      <c r="T69" s="20"/>
-      <c r="U69" s="20"/>
-      <c r="V69" s="20"/>
-      <c r="W69" s="20"/>
-      <c r="X69" s="27"/>
+      <c r="E69" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="7"/>
+      <c r="I69" s="7"/>
+      <c r="J69" s="7"/>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
+      <c r="N69" s="7"/>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="7"/>
+      <c r="R69" s="7"/>
+      <c r="S69" s="7"/>
+      <c r="T69" s="7"/>
+      <c r="U69" s="7"/>
+      <c r="V69" s="7"/>
+      <c r="W69" s="7"/>
+      <c r="X69" s="14"/>
     </row>
     <row r="70" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="22">
+      <c r="A70" s="9">
         <v>2008</v>
       </c>
-      <c r="B70" s="22" t="s">
+      <c r="B70" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="C70" s="24" t="s">
+      <c r="C70" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="D70" s="22" t="s">
+      <c r="D70" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="E70" s="20"/>
-      <c r="F70" s="20"/>
-      <c r="G70" s="20"/>
-      <c r="H70" s="20"/>
-      <c r="I70" s="20"/>
-      <c r="J70" s="20"/>
-      <c r="K70" s="20"/>
-      <c r="L70" s="20"/>
-      <c r="M70" s="20"/>
-      <c r="N70" s="20"/>
-      <c r="O70" s="20"/>
-      <c r="P70" s="20"/>
-      <c r="Q70" s="20"/>
-      <c r="R70" s="20"/>
-      <c r="S70" s="20"/>
-      <c r="T70" s="20"/>
-      <c r="U70" s="20"/>
-      <c r="V70" s="20"/>
-      <c r="W70" s="20"/>
-      <c r="X70" s="27"/>
+      <c r="E70" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="7"/>
+      <c r="I70" s="7"/>
+      <c r="J70" s="7"/>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="7"/>
+      <c r="R70" s="7"/>
+      <c r="S70" s="7"/>
+      <c r="T70" s="7"/>
+      <c r="U70" s="7"/>
+      <c r="V70" s="7"/>
+      <c r="W70" s="7"/>
+      <c r="X70" s="14"/>
     </row>
     <row r="71" spans="1:24" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="22">
+      <c r="A71" s="9">
         <v>2009</v>
       </c>
-      <c r="B71" s="22" t="s">
+      <c r="B71" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="D71" s="23" t="s">
+      <c r="D71" s="10" t="s">
         <v>354</v>
       </c>
-      <c r="E71" s="20"/>
-      <c r="F71" s="20"/>
-      <c r="G71" s="20"/>
-      <c r="H71" s="20"/>
-      <c r="I71" s="20"/>
-      <c r="J71" s="20"/>
-      <c r="K71" s="20"/>
-      <c r="L71" s="20"/>
-      <c r="M71" s="20"/>
-      <c r="N71" s="20"/>
-      <c r="O71" s="20"/>
-      <c r="P71" s="20"/>
-      <c r="Q71" s="20"/>
-      <c r="R71" s="20"/>
-      <c r="S71" s="20"/>
-      <c r="T71" s="20"/>
-      <c r="U71" s="20"/>
-      <c r="V71" s="20"/>
-      <c r="W71" s="20"/>
-      <c r="X71" s="27"/>
+      <c r="E71" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="7"/>
+      <c r="I71" s="7"/>
+      <c r="J71" s="7"/>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
+      <c r="N71" s="7"/>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="7"/>
+      <c r="R71" s="7"/>
+      <c r="S71" s="7"/>
+      <c r="T71" s="7"/>
+      <c r="U71" s="7"/>
+      <c r="V71" s="7"/>
+      <c r="W71" s="7"/>
+      <c r="X71" s="14"/>
     </row>
     <row r="72" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="22">
+      <c r="A72" s="9">
         <v>2010</v>
       </c>
-      <c r="B72" s="22" t="s">
+      <c r="B72" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="C72" s="24" t="s">
+      <c r="C72" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="D72" s="22" t="s">
+      <c r="D72" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="E72" s="20"/>
-      <c r="F72" s="20"/>
-      <c r="G72" s="20"/>
-      <c r="H72" s="20"/>
-      <c r="I72" s="20"/>
-      <c r="J72" s="20"/>
-      <c r="K72" s="20"/>
-      <c r="L72" s="20"/>
-      <c r="M72" s="20"/>
-      <c r="N72" s="20"/>
-      <c r="O72" s="20"/>
-      <c r="P72" s="20"/>
-      <c r="Q72" s="20"/>
-      <c r="R72" s="20"/>
-      <c r="S72" s="20"/>
-      <c r="T72" s="20"/>
-      <c r="U72" s="20"/>
-      <c r="V72" s="20"/>
-      <c r="W72" s="20"/>
-      <c r="X72" s="27"/>
+      <c r="E72" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="7"/>
+      <c r="I72" s="7"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
+      <c r="N72" s="7"/>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="7"/>
+      <c r="R72" s="7"/>
+      <c r="S72" s="7"/>
+      <c r="T72" s="7"/>
+      <c r="U72" s="7"/>
+      <c r="V72" s="7"/>
+      <c r="W72" s="7"/>
+      <c r="X72" s="14"/>
     </row>
     <row r="73" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="22">
+      <c r="A73" s="9">
         <v>2011</v>
       </c>
-      <c r="B73" s="22" t="s">
+      <c r="B73" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="C73" s="24" t="s">
+      <c r="C73" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="D73" s="22" t="s">
+      <c r="D73" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E73" s="20"/>
-      <c r="F73" s="20"/>
-      <c r="G73" s="20"/>
-      <c r="H73" s="20"/>
-      <c r="I73" s="20"/>
-      <c r="J73" s="20"/>
-      <c r="K73" s="20"/>
-      <c r="L73" s="20"/>
-      <c r="M73" s="20"/>
-      <c r="N73" s="20"/>
-      <c r="O73" s="20"/>
-      <c r="P73" s="20"/>
-      <c r="Q73" s="20"/>
-      <c r="R73" s="20"/>
-      <c r="S73" s="20"/>
-      <c r="T73" s="20"/>
-      <c r="U73" s="20"/>
-      <c r="V73" s="20"/>
-      <c r="W73" s="20"/>
-      <c r="X73" s="27"/>
+      <c r="E73" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="14"/>
     </row>
     <row r="74" spans="1:24" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="22">
+      <c r="A74" s="9">
         <v>2012</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="C74" s="24" t="s">
+      <c r="C74" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="D74" s="23" t="s">
+      <c r="D74" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="20"/>
-      <c r="J74" s="20"/>
-      <c r="K74" s="20"/>
-      <c r="L74" s="20"/>
-      <c r="M74" s="20"/>
-      <c r="N74" s="20"/>
-      <c r="O74" s="20"/>
-      <c r="P74" s="20"/>
-      <c r="Q74" s="20"/>
-      <c r="R74" s="20"/>
-      <c r="S74" s="20"/>
-      <c r="T74" s="20"/>
-      <c r="U74" s="20"/>
-      <c r="V74" s="20"/>
-      <c r="W74" s="20"/>
-      <c r="X74" s="27"/>
+      <c r="E74" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="7"/>
+      <c r="I74" s="7"/>
+      <c r="J74" s="7"/>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
+      <c r="N74" s="7"/>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="7"/>
+      <c r="R74" s="7"/>
+      <c r="S74" s="7"/>
+      <c r="T74" s="7"/>
+      <c r="U74" s="7"/>
+      <c r="V74" s="7"/>
+      <c r="W74" s="7"/>
+      <c r="X74" s="14"/>
     </row>
     <row r="75" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="22">
+      <c r="A75" s="9">
         <v>2013</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="C75" s="24" t="s">
+      <c r="C75" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="D75" s="23" t="s">
+      <c r="D75" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
-      <c r="K75" s="20"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
-      <c r="O75" s="20"/>
-      <c r="P75" s="20"/>
-      <c r="Q75" s="20"/>
-      <c r="R75" s="20"/>
-      <c r="S75" s="20"/>
-      <c r="T75" s="20"/>
-      <c r="U75" s="20"/>
-      <c r="V75" s="20"/>
-      <c r="W75" s="20"/>
-      <c r="X75" s="27"/>
+      <c r="E75" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="7"/>
+      <c r="I75" s="7"/>
+      <c r="J75" s="7"/>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
+      <c r="N75" s="7"/>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="7"/>
+      <c r="R75" s="7"/>
+      <c r="S75" s="7"/>
+      <c r="T75" s="7"/>
+      <c r="U75" s="7"/>
+      <c r="V75" s="7"/>
+      <c r="W75" s="7"/>
+      <c r="X75" s="14"/>
     </row>
     <row r="76" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="22">
+      <c r="A76" s="9">
         <v>2014</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="9" t="s">
         <v>364</v>
       </c>
-      <c r="C76" s="24" t="s">
+      <c r="C76" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="D76" s="23" t="s">
+      <c r="D76" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
-      <c r="I76" s="20"/>
-      <c r="J76" s="20"/>
-      <c r="K76" s="20"/>
-      <c r="L76" s="20"/>
-      <c r="M76" s="20"/>
-      <c r="N76" s="20"/>
-      <c r="O76" s="20"/>
-      <c r="P76" s="20"/>
-      <c r="Q76" s="20"/>
-      <c r="R76" s="20"/>
-      <c r="S76" s="20"/>
-      <c r="T76" s="20"/>
-      <c r="U76" s="20"/>
-      <c r="V76" s="20"/>
-      <c r="W76" s="20"/>
-      <c r="X76" s="27"/>
+      <c r="E76" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7"/>
+      <c r="H76" s="7"/>
+      <c r="I76" s="7"/>
+      <c r="J76" s="7"/>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
+      <c r="N76" s="7"/>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="7"/>
+      <c r="R76" s="7"/>
+      <c r="S76" s="7"/>
+      <c r="T76" s="7"/>
+      <c r="U76" s="7"/>
+      <c r="V76" s="7"/>
+      <c r="W76" s="7"/>
+      <c r="X76" s="14"/>
     </row>
     <row r="77" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="22">
+      <c r="A77" s="9">
         <v>2015</v>
       </c>
-      <c r="B77" s="22" t="s">
+      <c r="B77" s="9" t="s">
         <v>366</v>
       </c>
-      <c r="C77" s="24" t="s">
+      <c r="C77" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="D77" s="22" t="s">
+      <c r="D77" s="9" t="s">
         <v>368</v>
       </c>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="20"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
-      <c r="O77" s="20"/>
-      <c r="P77" s="20"/>
-      <c r="Q77" s="20"/>
-      <c r="R77" s="20"/>
-      <c r="S77" s="20"/>
-      <c r="T77" s="20"/>
-      <c r="U77" s="20"/>
-      <c r="V77" s="20"/>
-      <c r="W77" s="20"/>
-      <c r="X77" s="27"/>
+      <c r="E77" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
+      <c r="N77" s="7"/>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="7"/>
+      <c r="R77" s="7"/>
+      <c r="S77" s="7"/>
+      <c r="T77" s="7"/>
+      <c r="U77" s="7"/>
+      <c r="V77" s="7"/>
+      <c r="W77" s="7"/>
+      <c r="X77" s="14"/>
     </row>
     <row r="78" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="22">
+      <c r="A78" s="9">
         <v>2016</v>
       </c>
-      <c r="B78" s="22" t="s">
+      <c r="B78" s="9" t="s">
         <v>369</v>
       </c>
-      <c r="C78" s="24" t="s">
+      <c r="C78" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="D78" s="22" t="s">
+      <c r="D78" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="E78" s="20"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
-      <c r="I78" s="20"/>
-      <c r="J78" s="20"/>
-      <c r="K78" s="20"/>
-      <c r="L78" s="20"/>
-      <c r="M78" s="20"/>
-      <c r="N78" s="20"/>
-      <c r="O78" s="20"/>
-      <c r="P78" s="20"/>
-      <c r="Q78" s="20"/>
-      <c r="R78" s="20"/>
-      <c r="S78" s="20"/>
-      <c r="T78" s="20"/>
-      <c r="U78" s="20"/>
-      <c r="V78" s="20"/>
-      <c r="W78" s="20"/>
-      <c r="X78" s="27"/>
+      <c r="E78" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="7"/>
+      <c r="I78" s="7"/>
+      <c r="J78" s="7"/>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
+      <c r="N78" s="7"/>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="7"/>
+      <c r="R78" s="7"/>
+      <c r="S78" s="7"/>
+      <c r="T78" s="7"/>
+      <c r="U78" s="7"/>
+      <c r="V78" s="7"/>
+      <c r="W78" s="7"/>
+      <c r="X78" s="14"/>
     </row>
     <row r="79" spans="1:24" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="22">
+      <c r="A79" s="9">
         <v>2017</v>
       </c>
-      <c r="B79" s="22" t="s">
+      <c r="B79" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="C79" s="22" t="s">
+      <c r="C79" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="D79" s="23" t="s">
+      <c r="D79" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
-      <c r="O79" s="20"/>
-      <c r="P79" s="20"/>
-      <c r="Q79" s="20"/>
-      <c r="R79" s="20"/>
-      <c r="S79" s="20"/>
-      <c r="T79" s="20"/>
-      <c r="U79" s="20"/>
-      <c r="V79" s="20"/>
-      <c r="W79" s="20"/>
-      <c r="X79" s="27"/>
+      <c r="E79" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="7"/>
+      <c r="I79" s="7"/>
+      <c r="J79" s="7"/>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
+      <c r="N79" s="7"/>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="7"/>
+      <c r="R79" s="7"/>
+      <c r="S79" s="7"/>
+      <c r="T79" s="7"/>
+      <c r="U79" s="7"/>
+      <c r="V79" s="7"/>
+      <c r="W79" s="7"/>
+      <c r="X79" s="14"/>
     </row>
     <row r="80" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="22">
+      <c r="A80" s="9">
         <v>2018</v>
       </c>
-      <c r="B80" s="22" t="s">
+      <c r="B80" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C80" s="24" t="s">
+      <c r="C80" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="D80" s="23" t="s">
+      <c r="D80" s="10" t="s">
         <v>376</v>
       </c>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="20"/>
-      <c r="L80" s="20"/>
-      <c r="M80" s="20"/>
-      <c r="N80" s="20"/>
-      <c r="O80" s="20"/>
-      <c r="P80" s="20"/>
-      <c r="Q80" s="20"/>
-      <c r="R80" s="20"/>
-      <c r="S80" s="20"/>
-      <c r="T80" s="20"/>
-      <c r="U80" s="20"/>
-      <c r="V80" s="20"/>
-      <c r="W80" s="20"/>
-      <c r="X80" s="27"/>
+      <c r="E80" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="14"/>
     </row>
     <row r="81" spans="1:24" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="22">
+      <c r="A81" s="9">
         <v>2019</v>
       </c>
-      <c r="B81" s="22" t="s">
+      <c r="B81" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="C81" s="24" t="s">
+      <c r="C81" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="D81" s="22" t="s">
+      <c r="D81" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
-      <c r="O81" s="20"/>
-      <c r="P81" s="20"/>
-      <c r="Q81" s="20"/>
-      <c r="R81" s="20"/>
-      <c r="S81" s="20"/>
-      <c r="T81" s="20"/>
-      <c r="U81" s="20"/>
-      <c r="V81" s="20"/>
-      <c r="W81" s="20"/>
-      <c r="X81" s="27"/>
+      <c r="E81" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="7"/>
+      <c r="I81" s="7"/>
+      <c r="J81" s="7"/>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
+      <c r="N81" s="7"/>
+      <c r="O81" s="7"/>
+      <c r="P81" s="7"/>
+      <c r="Q81" s="7"/>
+      <c r="R81" s="7"/>
+      <c r="S81" s="7"/>
+      <c r="T81" s="7"/>
+      <c r="U81" s="7"/>
+      <c r="V81" s="7"/>
+      <c r="W81" s="7"/>
+      <c r="X81" s="14"/>
     </row>
     <row r="82" spans="1:24" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="22">
+      <c r="A82" s="9">
         <v>2020</v>
       </c>
-      <c r="B82" s="22" t="s">
+      <c r="B82" s="9" t="s">
         <v>379</v>
       </c>
-      <c r="C82" s="24" t="s">
+      <c r="C82" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="D82" s="23" t="s">
+      <c r="D82" s="10" t="s">
         <v>381</v>
       </c>
-      <c r="E82" s="20"/>
-      <c r="F82" s="20"/>
-      <c r="G82" s="20"/>
-      <c r="H82" s="20"/>
-      <c r="I82" s="20"/>
-      <c r="J82" s="20"/>
-      <c r="K82" s="20"/>
-      <c r="L82" s="20"/>
-      <c r="M82" s="20"/>
-      <c r="N82" s="20"/>
-      <c r="O82" s="20"/>
-      <c r="P82" s="20"/>
-      <c r="Q82" s="20"/>
-      <c r="R82" s="20"/>
-      <c r="S82" s="20"/>
-      <c r="T82" s="20"/>
-      <c r="U82" s="20"/>
-      <c r="V82" s="20"/>
-      <c r="W82" s="20"/>
-      <c r="X82" s="27"/>
+      <c r="E82" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="7"/>
+      <c r="I82" s="7"/>
+      <c r="J82" s="7"/>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
+      <c r="N82" s="7"/>
+      <c r="O82" s="7"/>
+      <c r="P82" s="7"/>
+      <c r="Q82" s="7"/>
+      <c r="R82" s="7"/>
+      <c r="S82" s="7"/>
+      <c r="T82" s="7"/>
+      <c r="U82" s="7"/>
+      <c r="V82" s="7"/>
+      <c r="W82" s="7"/>
+      <c r="X82" s="14"/>
     </row>
     <row r="83" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="22">
+      <c r="A83" s="9">
         <v>2022</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="9" t="s">
         <v>382</v>
       </c>
-      <c r="C83" s="24" t="s">
+      <c r="C83" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="D83" s="23" t="s">
+      <c r="D83" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
-      <c r="O83" s="20"/>
-      <c r="P83" s="20"/>
-      <c r="Q83" s="20"/>
-      <c r="R83" s="20"/>
-      <c r="S83" s="20"/>
-      <c r="T83" s="20"/>
-      <c r="U83" s="20"/>
-      <c r="V83" s="20"/>
-      <c r="W83" s="20"/>
-      <c r="X83" s="27"/>
+      <c r="E83" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="7"/>
+      <c r="I83" s="7"/>
+      <c r="J83" s="7"/>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
+      <c r="N83" s="7"/>
+      <c r="O83" s="7"/>
+      <c r="P83" s="7"/>
+      <c r="Q83" s="7"/>
+      <c r="R83" s="7"/>
+      <c r="S83" s="7"/>
+      <c r="T83" s="7"/>
+      <c r="U83" s="7"/>
+      <c r="V83" s="7"/>
+      <c r="W83" s="7"/>
+      <c r="X83" s="14"/>
     </row>
     <row r="84" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="22">
+      <c r="A84" s="9">
         <v>2023</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="9" t="s">
         <v>384</v>
       </c>
-      <c r="C84" s="24" t="s">
+      <c r="C84" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="D84" s="22" t="s">
+      <c r="D84" s="9" t="s">
         <v>386</v>
       </c>
-      <c r="E84" s="28"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="28"/>
-      <c r="H84" s="28"/>
-      <c r="I84" s="28"/>
-      <c r="J84" s="28"/>
-      <c r="K84" s="28"/>
-      <c r="L84" s="28"/>
-      <c r="M84" s="28"/>
-      <c r="N84" s="28"/>
-      <c r="O84" s="28"/>
-      <c r="P84" s="28"/>
-      <c r="Q84" s="28"/>
-      <c r="R84" s="28"/>
-      <c r="S84" s="28"/>
-      <c r="T84" s="28"/>
-      <c r="U84" s="28"/>
-      <c r="V84" s="28"/>
-      <c r="W84" s="28"/>
-      <c r="X84" s="29"/>
+      <c r="E84" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
+      <c r="H84" s="15"/>
+      <c r="I84" s="15"/>
+      <c r="J84" s="15"/>
+      <c r="K84" s="15"/>
+      <c r="L84" s="15"/>
+      <c r="M84" s="15"/>
+      <c r="N84" s="15"/>
+      <c r="O84" s="15"/>
+      <c r="P84" s="15"/>
+      <c r="Q84" s="15"/>
+      <c r="R84" s="15"/>
+      <c r="S84" s="15"/>
+      <c r="T84" s="15"/>
+      <c r="U84" s="15"/>
+      <c r="V84" s="15"/>
+      <c r="W84" s="15"/>
+      <c r="X84" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="9">
